--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_5_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_5_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>653545.6392443088</v>
+        <v>653973.7054883451</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2688149.654238723</v>
+        <v>2881388.79929313</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8966943.138461769</v>
+        <v>8932878.199008647</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7765167.562022891</v>
+        <v>7752553.712286927</v>
       </c>
     </row>
     <row r="11">
@@ -659,13 +661,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>249.7552949734467</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -707,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>110.8505069334775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
@@ -753,7 +755,7 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>87.4144422354058</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
         <v>48.89338144820752</v>
@@ -820,25 +822,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>53.0363847091458</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -911,7 +913,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>135.5095052705418</v>
       </c>
       <c r="W5" t="n">
-        <v>323.928767268327</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>53.0363847091458</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>66.0314987001008</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>282.8997453624013</v>
       </c>
       <c r="H8" t="n">
-        <v>305.5013027154383</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1294,25 +1296,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>53.0363847091458</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1385,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.492821306886913</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>221.2655964161775</v>
@@ -1430,10 +1432,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>325.7009948121554</v>
       </c>
       <c r="Y11" t="n">
         <v>392.5258019886049</v>
@@ -1531,25 +1533,25 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>53.0363847091458</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1613,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>307.4319604772771</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1652,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
         <v>221.2655964161775</v>
@@ -1667,10 +1669,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>123.2395907264622</v>
       </c>
       <c r="Y14" t="n">
         <v>392.5258019886049</v>
@@ -1762,31 +1764,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9399310463981</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1831,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>398.5576896346209</v>
@@ -1856,13 +1858,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>244.3034817675996</v>
       </c>
       <c r="H17" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>3.356177476385583</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1907,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>392.5258019886049</v>
@@ -2053,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>155.6053465906476</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>66.0314987001008</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -2081,22 +2083,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>161.4085122120592</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>304.9220910887695</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -2248,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,16 +2289,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>161.7591374042685</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>53.03638470914613</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2321,19 +2323,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>73.02881015296157</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>304.9220910887695</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -2527,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>66.03149870010068</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U25" t="n">
         <v>282.5844038405181</v>
@@ -2536,7 +2538,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>113.1667354347872</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2558,13 +2560,13 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>382.4530997000307</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
         <v>409.0311279568768</v>
@@ -2600,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2609,16 +2611,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>233.2385090293388</v>
       </c>
       <c r="Y26" t="n">
         <v>392.5258019886049</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>92.58905770418647</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
         <v>389.2437464820987</v>
@@ -2798,16 +2800,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>102.7928658892093</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2858,7 +2860,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2956,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>3.924018829883175</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3013,10 +3015,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>157.6926523830317</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -3032,10 +3034,10 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>412.725494085322</v>
@@ -3047,7 +3049,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>5.180451967190661</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3092,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>304.9220910887695</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -3184,31 +3186,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3241,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>85.84356265118763</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3250,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>11.61260049965488</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>269.4069855745573</v>
+        <v>99.10701526936145</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3323,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
         <v>367.2890446813954</v>
@@ -3332,7 +3334,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -3436,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>66.03149870010071</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3478,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>116.876383545772</v>
       </c>
       <c r="V37" t="n">
         <v>263.319551727384</v>
@@ -3487,7 +3489,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3503,25 +3505,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,22 +3550,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>336.8179925468349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>229.2671475085639</v>
       </c>
       <c r="X38" t="n">
         <v>385.5580790162737</v>
@@ -3670,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3712,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>66.03149870010068</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
         <v>282.5844038405181</v>
@@ -3721,7 +3723,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,10 +3745,10 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>337.0166502961041</v>
       </c>
       <c r="F41" t="n">
         <v>412.725494085322</v>
@@ -3755,7 +3757,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3785,16 +3787,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3803,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>140.0736715804096</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -3901,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3946,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>155.6053465906474</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>192.4518147817244</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
@@ -3989,7 +3991,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>409.0311279568768</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>63.75722240296388</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1952022697474</v>
+        <v>229.8659254454406</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -4068,13 +4070,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>118.8592197488542</v>
+        <v>118.5388453083828</v>
       </c>
       <c r="H45" t="n">
-        <v>87.41444223540508</v>
+        <v>84.320299612958</v>
       </c>
       <c r="I45" t="n">
-        <v>48.89338144820752</v>
+        <v>37.86294566882081</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>23.6778726709161</v>
+        <v>3.786554340597835</v>
       </c>
       <c r="S45" t="n">
-        <v>133.5813703291298</v>
+        <v>127.6305556124798</v>
       </c>
       <c r="T45" t="n">
-        <v>175.2139736830814</v>
+        <v>173.9226398638123</v>
       </c>
       <c r="U45" t="n">
-        <v>207.9625118881446</v>
+        <v>207.9414346223241</v>
       </c>
       <c r="V45" t="n">
         <v>220.3146016126436</v>
@@ -4132,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>76.19311257242961</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4180,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>63.04686263754277</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>440.488471598613</v>
+        <v>299.5910458322979</v>
       </c>
       <c r="C2" t="n">
-        <v>47.31297010154361</v>
+        <v>299.5910458322979</v>
       </c>
       <c r="D2" t="n">
-        <v>47.31297010154361</v>
+        <v>299.5910458322979</v>
       </c>
       <c r="E2" t="n">
         <v>47.31297010154361</v>
@@ -4331,19 +4333,19 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K2" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L2" t="n">
-        <v>899.6156178475343</v>
+        <v>503.6092283712875</v>
       </c>
       <c r="M2" t="n">
-        <v>1445.616517892115</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N2" t="n">
-        <v>1973.427801529577</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O2" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P2" t="n">
         <v>2365.64850507718</v>
@@ -4355,25 +4357,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S2" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T2" t="n">
-        <v>2253.678296053466</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="U2" t="n">
-        <v>1997.925566488064</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="V2" t="n">
-        <v>1997.925566488064</v>
+        <v>1857.028140721749</v>
       </c>
       <c r="W2" t="n">
-        <v>1626.926531456352</v>
+        <v>1486.029105690037</v>
       </c>
       <c r="X2" t="n">
-        <v>1237.473926389409</v>
+        <v>1096.576500623094</v>
       </c>
       <c r="Y2" t="n">
-        <v>840.9832173100099</v>
+        <v>700.0857915436948</v>
       </c>
     </row>
     <row r="3">
@@ -4383,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D3" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F3" t="n">
-        <v>305.0574584171674</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H3" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J3" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K3" t="n">
-        <v>367.0521161637701</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="L3" t="n">
-        <v>850.6182020620834</v>
+        <v>530.879055999857</v>
       </c>
       <c r="M3" t="n">
-        <v>1374.529131354181</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N3" t="n">
-        <v>1960.027136360783</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O3" t="n">
         <v>1960.027136360783</v>
@@ -4446,13 +4448,13 @@
         <v>1597.213828123731</v>
       </c>
       <c r="W3" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X3" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.4752876825366</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D4" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E4" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F4" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G4" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H4" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I4" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J4" t="n">
         <v>47.31297010154361</v>
@@ -4510,28 +4512,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R4" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S4" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T4" t="n">
-        <v>948.7599926430961</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U4" t="n">
-        <v>948.7599926430961</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="V4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="W4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1248.500379280328</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="C5" t="n">
-        <v>1248.500379280328</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="D5" t="n">
-        <v>863.0592504969959</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="E5" t="n">
-        <v>460.4757256135405</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="F5" t="n">
-        <v>460.4757256135405</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G5" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H5" t="n">
         <v>47.31297010154361</v>
@@ -4565,22 +4567,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J5" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K5" t="n">
-        <v>406.2953261290054</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L5" t="n">
-        <v>899.6156178475343</v>
+        <v>685.2830347289006</v>
       </c>
       <c r="M5" t="n">
-        <v>1445.616517892115</v>
+        <v>1231.283934773481</v>
       </c>
       <c r="N5" t="n">
-        <v>1973.427801529577</v>
+        <v>1759.095218410943</v>
       </c>
       <c r="O5" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P5" t="n">
         <v>2365.64850507718</v>
@@ -4589,28 +4591,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R5" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S5" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T5" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U5" t="n">
-        <v>2365.64850507718</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V5" t="n">
-        <v>2365.64850507718</v>
+        <v>1545.010416145706</v>
       </c>
       <c r="W5" t="n">
-        <v>2038.447730058668</v>
+        <v>1174.011381113993</v>
       </c>
       <c r="X5" t="n">
-        <v>1648.995124991725</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="Y5" t="n">
-        <v>1648.995124991725</v>
+        <v>784.5587760470498</v>
       </c>
     </row>
     <row r="6">
@@ -4653,16 +4655,16 @@
         <v>850.6182020620834</v>
       </c>
       <c r="M6" t="n">
-        <v>1209.141762214911</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="N6" t="n">
-        <v>1209.141762214911</v>
+        <v>1849.128222486199</v>
       </c>
       <c r="O6" t="n">
-        <v>1725.662044805892</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P6" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q6" t="n">
         <v>2365.64850507718</v>
@@ -4747,22 +4749,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R7" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S7" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T7" t="n">
-        <v>948.7599926430961</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U7" t="n">
-        <v>663.3212008849971</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="V7" t="n">
-        <v>397.3418557058213</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="W7" t="n">
-        <v>114.011453636999</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X7" t="n">
         <v>47.31297010154361</v>
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>772.7945830316046</v>
+        <v>1931.164882283303</v>
       </c>
       <c r="C8" t="n">
-        <v>772.7945830316046</v>
+        <v>1537.989380786234</v>
       </c>
       <c r="D8" t="n">
-        <v>772.7945830316046</v>
+        <v>1152.548252002902</v>
       </c>
       <c r="E8" t="n">
-        <v>772.7945830316046</v>
+        <v>749.964727119446</v>
       </c>
       <c r="F8" t="n">
-        <v>355.9001445615824</v>
+        <v>333.0702886494238</v>
       </c>
       <c r="G8" t="n">
-        <v>355.9001445615824</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
         <v>47.31297010154361</v>
@@ -4808,7 +4810,7 @@
         <v>47.31297010154361</v>
       </c>
       <c r="L8" t="n">
-        <v>318.7636682303387</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M8" t="n">
         <v>864.7645682749193</v>
@@ -4826,28 +4828,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2142.147902636597</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U8" t="n">
-        <v>1886.395173071196</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="V8" t="n">
-        <v>1544.288363774714</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="W8" t="n">
-        <v>1173.289328743002</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="X8" t="n">
-        <v>1173.289328743002</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="Y8" t="n">
-        <v>1173.289328743002</v>
+        <v>1931.164882283303</v>
       </c>
     </row>
     <row r="9">
@@ -4857,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C9" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D9" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E9" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F9" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G9" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H9" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834974</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="L9" t="n">
-        <v>858.0088487631986</v>
+        <v>530.879055999857</v>
       </c>
       <c r="M9" t="n">
-        <v>858.0088487631986</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R9" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S9" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T9" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U9" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V9" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W9" t="n">
         <v>1367.096582257017</v>
@@ -4926,7 +4928,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y9" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4986,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>756.8371493183852</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C11" t="n">
-        <v>756.8371493183852</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D11" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E11" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F11" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G11" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H11" t="n">
         <v>47.31297010154361</v>
@@ -5042,16 +5044,16 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K11" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L11" t="n">
-        <v>899.6156178475343</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M11" t="n">
-        <v>1445.616517892115</v>
+        <v>1086.634161864653</v>
       </c>
       <c r="N11" t="n">
-        <v>1973.427801529577</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O11" t="n">
         <v>2017.461012945658</v>
@@ -5066,25 +5068,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S11" t="n">
-        <v>2364.140604767194</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T11" t="n">
-        <v>2140.64000232661</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U11" t="n">
-        <v>1884.887272761209</v>
+        <v>1886.395173071196</v>
       </c>
       <c r="V11" t="n">
-        <v>1542.780463464727</v>
+        <v>1544.288363774714</v>
       </c>
       <c r="W11" t="n">
-        <v>1542.780463464727</v>
+        <v>1173.289328743002</v>
       </c>
       <c r="X11" t="n">
-        <v>1153.327858397784</v>
+        <v>844.2984248923394</v>
       </c>
       <c r="Y11" t="n">
-        <v>756.8371493183852</v>
+        <v>447.8077158129405</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5120,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J12" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K12" t="n">
-        <v>480.1670983834974</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L12" t="n">
-        <v>963.7331842818107</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="M12" t="n">
-        <v>1549.231189288413</v>
+        <v>952.5501211703722</v>
       </c>
       <c r="N12" t="n">
-        <v>1614.763130931308</v>
+        <v>1538.048126176974</v>
       </c>
       <c r="O12" t="n">
-        <v>2131.283413522289</v>
+        <v>2054.568408767956</v>
       </c>
       <c r="P12" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q12" t="n">
         <v>2365.648505077179</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D13" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E13" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F13" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G13" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H13" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I13" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J13" t="n">
         <v>47.31297010154361</v>
@@ -5221,28 +5223,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R13" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S13" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T13" t="n">
-        <v>948.7599926430961</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U13" t="n">
-        <v>948.7599926430961</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="V13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="W13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>357.8503039169751</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C14" t="n">
-        <v>357.8503039169751</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D14" t="n">
-        <v>357.8503039169751</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E14" t="n">
         <v>47.31297010154361</v>
@@ -5276,52 +5278,52 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J14" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K14" t="n">
-        <v>318.7636682303387</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L14" t="n">
-        <v>318.7636682303387</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M14" t="n">
-        <v>864.7645682749193</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N14" t="n">
-        <v>1392.575851912381</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O14" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P14" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q14" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R14" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S14" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T14" t="n">
-        <v>2142.147902636597</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U14" t="n">
-        <v>1886.395173071196</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V14" t="n">
-        <v>1544.288363774714</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W14" t="n">
-        <v>1544.288363774714</v>
+        <v>968.782859969574</v>
       </c>
       <c r="X14" t="n">
-        <v>1154.835758707771</v>
+        <v>844.2984248923394</v>
       </c>
       <c r="Y14" t="n">
-        <v>758.345049628372</v>
+        <v>447.8077158129405</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5360,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K15" t="n">
-        <v>47.31297010154361</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L15" t="n">
-        <v>530.8790559998569</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M15" t="n">
-        <v>1116.377061006459</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="N15" t="n">
-        <v>1701.875066013061</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="O15" t="n">
-        <v>2218.395348604042</v>
+        <v>1952.636489659666</v>
       </c>
       <c r="P15" t="n">
-        <v>2365.648505077179</v>
+        <v>2358.257858376064</v>
       </c>
       <c r="Q15" t="n">
         <v>2365.648505077179</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>540.4399127684381</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C16" t="n">
-        <v>370.2347948344274</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D16" t="n">
-        <v>370.2347948344274</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="E16" t="n">
-        <v>370.2347948344274</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F16" t="n">
-        <v>212.9088600474003</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G16" t="n">
-        <v>47.31297010154361</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H16" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I16" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J16" t="n">
         <v>47.31297010154361</v>
@@ -5479,7 +5481,7 @@
         <v>948.7599926430961</v>
       </c>
       <c r="Y16" t="n">
-        <v>725.6479314597394</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="17">
@@ -5489,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1576.315112671863</v>
+        <v>1969.157795997781</v>
       </c>
       <c r="C17" t="n">
-        <v>1576.315112671863</v>
+        <v>1575.982294500712</v>
       </c>
       <c r="D17" t="n">
-        <v>1190.873983888531</v>
+        <v>1575.982294500712</v>
       </c>
       <c r="E17" t="n">
-        <v>788.2904590050753</v>
+        <v>1173.398769617256</v>
       </c>
       <c r="F17" t="n">
-        <v>371.396020535053</v>
+        <v>756.5043311472342</v>
       </c>
       <c r="G17" t="n">
-        <v>371.396020535053</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H17" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I17" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J17" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K17" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L17" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M17" t="n">
-        <v>1445.616517892115</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N17" t="n">
-        <v>1973.427801529577</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="O17" t="n">
-        <v>1973.427801529577</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P17" t="n">
-        <v>2321.615293661099</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q17" t="n">
         <v>2365.64850507718</v>
@@ -5543,22 +5545,22 @@
         <v>2365.64850507718</v>
       </c>
       <c r="T17" t="n">
-        <v>2362.258426818205</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U17" t="n">
-        <v>2362.258426818205</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V17" t="n">
-        <v>2362.258426818205</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W17" t="n">
-        <v>2362.258426818205</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X17" t="n">
-        <v>1972.805821751262</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Y17" t="n">
-        <v>1576.315112671863</v>
+        <v>1969.157795997781</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C18" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D18" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E18" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F18" t="n">
-        <v>305.0574584171674</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G18" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H18" t="n">
-        <v>96.70022408963275</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I18" t="n">
-        <v>47.31297010154434</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J18" t="n">
-        <v>47.31297010154434</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K18" t="n">
-        <v>367.0521161637708</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L18" t="n">
-        <v>367.0521161637708</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M18" t="n">
-        <v>858.0088487631995</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N18" t="n">
-        <v>1443.506853769802</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O18" t="n">
-        <v>1960.027136360783</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P18" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q18" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R18" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S18" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T18" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U18" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V18" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W18" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X18" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y18" t="n">
-        <v>998.4752876825366</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="19">
@@ -5701,19 +5703,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T19" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U19" t="n">
-        <v>663.3212008849971</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V19" t="n">
-        <v>397.3418557058213</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="W19" t="n">
-        <v>114.011453636999</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="X19" t="n">
-        <v>47.31297010154361</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="Y19" t="n">
         <v>47.31297010154361</v>
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2397.459527283501</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C20" t="n">
-        <v>2004.284025786432</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D20" t="n">
-        <v>1618.8428970031</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E20" t="n">
-        <v>1216.259372119644</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F20" t="n">
-        <v>799.3649336496217</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G20" t="n">
-        <v>386.2021781376249</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H20" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358934</v>
+        <v>685.2830347289006</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403515</v>
+        <v>1231.283934773481</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040977</v>
+        <v>1759.095218410943</v>
       </c>
       <c r="O20" t="n">
-        <v>2572.923332933306</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P20" t="n">
-        <v>2921.110825064828</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S20" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T20" t="n">
-        <v>3105.956385205776</v>
+        <v>2202.609603852878</v>
       </c>
       <c r="U20" t="n">
-        <v>3105.956385205776</v>
+        <v>1946.856874287477</v>
       </c>
       <c r="V20" t="n">
-        <v>3105.956385205776</v>
+        <v>1604.750064990995</v>
       </c>
       <c r="W20" t="n">
-        <v>3105.956385205776</v>
+        <v>1233.751029959283</v>
       </c>
       <c r="X20" t="n">
-        <v>2797.954272994898</v>
+        <v>844.2984248923394</v>
       </c>
       <c r="Y20" t="n">
-        <v>2797.954272994898</v>
+        <v>447.8077158129405</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>861.4851108441464</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C21" t="n">
-        <v>710.8308804042387</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D21" t="n">
-        <v>580.741913025719</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E21" t="n">
-        <v>444.2954221366068</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F21" t="n">
-        <v>319.8636160197386</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G21" t="n">
-        <v>199.803798091603</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H21" t="n">
-        <v>111.5063816922039</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L21" t="n">
-        <v>545.6852136024288</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M21" t="n">
-        <v>802.5350401618138</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N21" t="n">
-        <v>1458.313011372373</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O21" t="n">
-        <v>1974.833293963354</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q21" t="n">
-        <v>2380.454662679751</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R21" t="n">
-        <v>2356.537619577816</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S21" t="n">
-        <v>2221.606942477685</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T21" t="n">
-        <v>2044.623130676593</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U21" t="n">
-        <v>1834.559987355235</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V21" t="n">
-        <v>1612.019985726302</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W21" t="n">
-        <v>1381.902739859589</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X21" t="n">
-        <v>1192.595662209601</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y21" t="n">
-        <v>1013.281445285108</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>676.2720927931252</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="C22" t="n">
-        <v>676.2720927931252</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="D22" t="n">
-        <v>676.2720927931252</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="E22" t="n">
-        <v>676.2720927931252</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="F22" t="n">
-        <v>518.9461580060981</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="G22" t="n">
-        <v>350.6921041055436</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="H22" t="n">
-        <v>195.2135530670377</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="I22" t="n">
-        <v>62.11912770411553</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>1546.036523645569</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>1710.164163519369</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>1896.455741857633</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>2079.645375888842</v>
       </c>
       <c r="O22" t="n">
-        <v>840.2677880990384</v>
+        <v>2242.350142930551</v>
       </c>
       <c r="P22" t="n">
-        <v>960.1439538756169</v>
+        <v>2362.226308707129</v>
       </c>
       <c r="Q22" t="n">
-        <v>963.5661502456679</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R22" t="n">
-        <v>839.6651608782449</v>
+        <v>2241.747515709757</v>
       </c>
       <c r="S22" t="n">
-        <v>676.2720927931252</v>
+        <v>2038.931431892307</v>
       </c>
       <c r="T22" t="n">
-        <v>676.2720927931252</v>
+        <v>1803.212380060541</v>
       </c>
       <c r="U22" t="n">
-        <v>676.2720927931252</v>
+        <v>1517.773588302442</v>
       </c>
       <c r="V22" t="n">
-        <v>676.2720927931252</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="W22" t="n">
-        <v>676.2720927931252</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="X22" t="n">
-        <v>676.2720927931252</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.2720927931252</v>
+        <v>1464.201482535628</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2397.459527283501</v>
+        <v>857.8781540846405</v>
       </c>
       <c r="C23" t="n">
-        <v>2004.284025786432</v>
+        <v>464.702652587571</v>
       </c>
       <c r="D23" t="n">
-        <v>1618.8428970031</v>
+        <v>464.702652587571</v>
       </c>
       <c r="E23" t="n">
-        <v>1216.259372119644</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F23" t="n">
-        <v>799.3649336496217</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G23" t="n">
-        <v>386.2021781376249</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H23" t="n">
         <v>62.11912770411553</v>
@@ -6014,25 +6016,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T23" t="n">
-        <v>3105.956385205776</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="U23" t="n">
-        <v>3105.956385205776</v>
+        <v>2460.189498140842</v>
       </c>
       <c r="V23" t="n">
-        <v>3105.956385205776</v>
+        <v>2118.082688844361</v>
       </c>
       <c r="W23" t="n">
-        <v>3105.956385205776</v>
+        <v>2044.316213942379</v>
       </c>
       <c r="X23" t="n">
-        <v>3105.956385205776</v>
+        <v>1654.863608875436</v>
       </c>
       <c r="Y23" t="n">
-        <v>2797.954272994898</v>
+        <v>1258.372899796037</v>
       </c>
     </row>
     <row r="24">
@@ -6069,13 +6071,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L24" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M24" t="n">
-        <v>1173.45686322911</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N24" t="n">
         <v>1458.313011372373</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="C25" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="D25" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="E25" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="F25" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="G25" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="H25" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="I25" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>2286.344403774166</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>2450.472043647965</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>2636.763621986229</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>2819.953256017438</v>
       </c>
       <c r="O25" t="n">
-        <v>840.2677880990384</v>
+        <v>2982.658023059147</v>
       </c>
       <c r="P25" t="n">
-        <v>960.1439538756169</v>
+        <v>3102.534188835725</v>
       </c>
       <c r="Q25" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R25" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S25" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T25" t="n">
-        <v>896.8676667102127</v>
+        <v>2870.237333374011</v>
       </c>
       <c r="U25" t="n">
-        <v>611.4288749521137</v>
+        <v>2584.798541615912</v>
       </c>
       <c r="V25" t="n">
-        <v>345.4495297729379</v>
+        <v>2318.819196436736</v>
       </c>
       <c r="W25" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="X25" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="Y25" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1254.773647036445</v>
+        <v>2073.376476849992</v>
       </c>
       <c r="C26" t="n">
-        <v>861.5981455393758</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="D26" t="n">
-        <v>861.5981455393758</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E26" t="n">
-        <v>861.5981455393758</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F26" t="n">
         <v>475.2818832161124</v>
@@ -6248,28 +6250,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R26" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S26" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T26" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U26" t="n">
-        <v>2812.210741925897</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V26" t="n">
-        <v>2812.210741925897</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W26" t="n">
-        <v>2441.211706894184</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X26" t="n">
-        <v>2051.759101827241</v>
+        <v>2870.361931640788</v>
       </c>
       <c r="Y26" t="n">
-        <v>1655.268392747842</v>
+        <v>2473.871222561389</v>
       </c>
     </row>
     <row r="27">
@@ -6315,10 +6317,10 @@
         <v>1173.45686322911</v>
       </c>
       <c r="N27" t="n">
-        <v>1829.234834439669</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O27" t="n">
-        <v>2345.75511703065</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P27" t="n">
         <v>2380.454662679751</v>
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1257.630196454539</v>
+        <v>1347.150460533841</v>
       </c>
       <c r="C29" t="n">
-        <v>864.45469495747</v>
+        <v>953.9749590367712</v>
       </c>
       <c r="D29" t="n">
-        <v>479.0135661741377</v>
+        <v>568.533830253439</v>
       </c>
       <c r="E29" t="n">
-        <v>479.0135661741377</v>
+        <v>165.9503053699835</v>
       </c>
       <c r="F29" t="n">
-        <v>62.11912770411553</v>
+        <v>165.9503053699835</v>
       </c>
       <c r="G29" t="n">
-        <v>62.11912770411553</v>
+        <v>165.9503053699835</v>
       </c>
       <c r="H29" t="n">
         <v>62.11912770411553</v>
@@ -6506,7 +6508,7 @@
         <v>1747.645206245238</v>
       </c>
       <c r="Y29" t="n">
-        <v>1351.154497165839</v>
+        <v>1747.645206245238</v>
       </c>
     </row>
     <row r="30">
@@ -6543,22 +6545,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K30" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L30" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M30" t="n">
-        <v>802.5350401618138</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N30" t="n">
-        <v>1458.313011372373</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O30" t="n">
-        <v>1974.833293963354</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P30" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q30" t="n">
         <v>2380.454662679751</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2822.625983136954</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="C31" t="n">
-        <v>2822.625983136954</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="D31" t="n">
-        <v>2822.625983136954</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="E31" t="n">
-        <v>2818.662327753234</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="F31" t="n">
-        <v>2661.336392966206</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="G31" t="n">
-        <v>2493.082339065652</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.603788027146</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="I31" t="n">
         <v>2204.509362664224</v>
@@ -6649,22 +6651,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T31" t="n">
-        <v>3105.956385205776</v>
+        <v>2870.237333374011</v>
       </c>
       <c r="U31" t="n">
-        <v>3105.956385205776</v>
+        <v>2870.237333374011</v>
       </c>
       <c r="V31" t="n">
-        <v>3105.956385205776</v>
+        <v>2870.237333374011</v>
       </c>
       <c r="W31" t="n">
-        <v>2822.625983136954</v>
+        <v>2586.906931305188</v>
       </c>
       <c r="X31" t="n">
-        <v>2822.625983136954</v>
+        <v>2427.62142384758</v>
       </c>
       <c r="Y31" t="n">
-        <v>2822.625983136954</v>
+        <v>2204.509362664224</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2397.459527283501</v>
+        <v>1747.771990524249</v>
       </c>
       <c r="C32" t="n">
-        <v>2004.284025786432</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="D32" t="n">
-        <v>1618.8428970031</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="E32" t="n">
-        <v>1216.259372119644</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="F32" t="n">
-        <v>799.3649336496217</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G32" t="n">
-        <v>386.2021781376249</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H32" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I32" t="n">
         <v>62.11912770411553</v>
@@ -6725,25 +6727,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S32" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T32" t="n">
-        <v>3105.956385205776</v>
+        <v>2934.210050381988</v>
       </c>
       <c r="U32" t="n">
-        <v>3105.956385205776</v>
+        <v>2934.210050381988</v>
       </c>
       <c r="V32" t="n">
-        <v>3105.956385205776</v>
+        <v>2934.210050381988</v>
       </c>
       <c r="W32" t="n">
-        <v>3105.956385205776</v>
+        <v>2934.210050381988</v>
       </c>
       <c r="X32" t="n">
-        <v>3105.956385205776</v>
+        <v>2544.757445315045</v>
       </c>
       <c r="Y32" t="n">
-        <v>2797.954272994898</v>
+        <v>2148.266736235646</v>
       </c>
     </row>
     <row r="33">
@@ -6786,7 +6788,7 @@
         <v>545.6852136024288</v>
       </c>
       <c r="M33" t="n">
-        <v>802.5350401618138</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N33" t="n">
         <v>1458.313011372373</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2685.906405836517</v>
+        <v>3019.245715861142</v>
       </c>
       <c r="C34" t="n">
-        <v>2515.701287902506</v>
+        <v>2849.040597927132</v>
       </c>
       <c r="D34" t="n">
-        <v>2360.068174805021</v>
+        <v>2849.040597927132</v>
       </c>
       <c r="E34" t="n">
-        <v>2204.509362664224</v>
+        <v>2849.040597927132</v>
       </c>
       <c r="F34" t="n">
-        <v>2204.509362664224</v>
+        <v>2691.714663140105</v>
       </c>
       <c r="G34" t="n">
-        <v>2204.509362664224</v>
+        <v>2523.46060923955</v>
       </c>
       <c r="H34" t="n">
-        <v>2204.509362664224</v>
+        <v>2367.982058201044</v>
       </c>
       <c r="I34" t="n">
-        <v>2204.509362664224</v>
+        <v>2234.887632838122</v>
       </c>
       <c r="J34" t="n">
         <v>2204.509362664224</v>
@@ -6889,19 +6891,19 @@
         <v>3105.956385205776</v>
       </c>
       <c r="U34" t="n">
-        <v>3105.956385205776</v>
+        <v>3019.245715861142</v>
       </c>
       <c r="V34" t="n">
-        <v>3105.956385205776</v>
+        <v>3019.245715861142</v>
       </c>
       <c r="W34" t="n">
-        <v>3105.956385205776</v>
+        <v>3019.245715861142</v>
       </c>
       <c r="X34" t="n">
-        <v>3094.226485711175</v>
+        <v>3019.245715861142</v>
       </c>
       <c r="Y34" t="n">
-        <v>2871.114424527819</v>
+        <v>3019.245715861142</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2073.376476849992</v>
+        <v>1340.285575440613</v>
       </c>
       <c r="C35" t="n">
-        <v>1680.200975352922</v>
+        <v>1340.285575440613</v>
       </c>
       <c r="D35" t="n">
-        <v>1294.75984656959</v>
+        <v>1340.285575440613</v>
       </c>
       <c r="E35" t="n">
-        <v>892.1763216861347</v>
+        <v>937.702050557157</v>
       </c>
       <c r="F35" t="n">
-        <v>475.2818832161124</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G35" t="n">
-        <v>62.11912770411553</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H35" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6962,25 +6964,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T35" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="U35" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="V35" t="n">
-        <v>3105.956385205776</v>
+        <v>2597.336020850345</v>
       </c>
       <c r="W35" t="n">
-        <v>2734.957350174064</v>
+        <v>2226.336985818633</v>
       </c>
       <c r="X35" t="n">
-        <v>2345.50474510712</v>
+        <v>1836.88438075169</v>
       </c>
       <c r="Y35" t="n">
-        <v>2345.50474510712</v>
+        <v>1440.393671672291</v>
       </c>
     </row>
     <row r="36">
@@ -7026,13 +7028,13 @@
         <v>1173.45686322911</v>
       </c>
       <c r="N36" t="n">
-        <v>1458.313011372373</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O36" t="n">
-        <v>1974.833293963354</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>128.8176112395708</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="C37" t="n">
-        <v>128.8176112395708</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="D37" t="n">
-        <v>128.8176112395708</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="E37" t="n">
-        <v>128.8176112395708</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="F37" t="n">
-        <v>128.8176112395708</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="G37" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="H37" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>2286.344403774166</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>2450.472043647965</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>2636.763621986229</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>2819.953256017438</v>
       </c>
       <c r="O37" t="n">
-        <v>840.2677880990384</v>
+        <v>2982.658023059147</v>
       </c>
       <c r="P37" t="n">
-        <v>960.1439538756169</v>
+        <v>3102.534188835725</v>
       </c>
       <c r="Q37" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R37" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S37" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T37" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U37" t="n">
-        <v>678.1273584875689</v>
+        <v>2987.899432129239</v>
       </c>
       <c r="V37" t="n">
-        <v>412.1480133083932</v>
+        <v>2721.920086950063</v>
       </c>
       <c r="W37" t="n">
-        <v>128.8176112395708</v>
+        <v>2438.589684881241</v>
       </c>
       <c r="X37" t="n">
-        <v>128.8176112395708</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="Y37" t="n">
-        <v>128.8176112395708</v>
+        <v>2204.509362664224</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>524.5392950451601</v>
+        <v>1687.93534806666</v>
       </c>
       <c r="C38" t="n">
-        <v>524.5392950451601</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="D38" t="n">
-        <v>524.5392950451601</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E38" t="n">
-        <v>524.5392950451601</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F38" t="n">
-        <v>524.5392950451601</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G38" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H38" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7196,28 +7198,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T38" t="n">
-        <v>2677.949313991765</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U38" t="n">
-        <v>2422.196584426364</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V38" t="n">
-        <v>2081.976389934612</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W38" t="n">
-        <v>1710.977354902899</v>
+        <v>2874.373407924399</v>
       </c>
       <c r="X38" t="n">
-        <v>1321.524749835956</v>
+        <v>2484.920802857455</v>
       </c>
       <c r="Y38" t="n">
-        <v>925.034040756557</v>
+        <v>2088.430093778056</v>
       </c>
     </row>
     <row r="39">
@@ -7254,19 +7256,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>545.6852136024288</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M39" t="n">
-        <v>1173.45686322911</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N39" t="n">
-        <v>1829.234834439669</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O39" t="n">
-        <v>2345.75511703065</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P39" t="n">
         <v>2380.454662679751</v>
@@ -7306,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>62.11912770411553</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="C40" t="n">
-        <v>62.11912770411553</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="D40" t="n">
-        <v>62.11912770411553</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="E40" t="n">
-        <v>62.11912770411553</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="F40" t="n">
         <v>62.11912770411553</v>
@@ -7360,22 +7362,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T40" t="n">
-        <v>896.8676667102127</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U40" t="n">
-        <v>611.4288749521137</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V40" t="n">
-        <v>345.4495297729379</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W40" t="n">
-        <v>62.11912770411553</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="X40" t="n">
-        <v>62.11912770411553</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="Y40" t="n">
-        <v>62.11912770411553</v>
+        <v>176.4289614766272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2397.459527283501</v>
+        <v>1625.772682068158</v>
       </c>
       <c r="C41" t="n">
-        <v>2004.284025786432</v>
+        <v>1232.597180571088</v>
       </c>
       <c r="D41" t="n">
-        <v>1618.8428970031</v>
+        <v>1232.597180571088</v>
       </c>
       <c r="E41" t="n">
-        <v>1216.259372119644</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F41" t="n">
-        <v>799.3649336496217</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G41" t="n">
-        <v>386.2021781376249</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H41" t="n">
         <v>62.11912770411553</v>
@@ -7433,28 +7435,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S41" t="n">
-        <v>2939.442830146827</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T41" t="n">
-        <v>2939.442830146827</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U41" t="n">
-        <v>2939.442830146827</v>
+        <v>2812.210741925897</v>
       </c>
       <c r="V41" t="n">
-        <v>2939.442830146827</v>
+        <v>2812.210741925897</v>
       </c>
       <c r="W41" t="n">
-        <v>2939.442830146827</v>
+        <v>2812.210741925897</v>
       </c>
       <c r="X41" t="n">
-        <v>2939.442830146827</v>
+        <v>2422.758136858954</v>
       </c>
       <c r="Y41" t="n">
-        <v>2797.954272994898</v>
+        <v>2026.267427779555</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>861.4851108441464</v>
+        <v>1586.986833370171</v>
       </c>
       <c r="C42" t="n">
-        <v>710.8308804042387</v>
+        <v>1436.332602930263</v>
       </c>
       <c r="D42" t="n">
-        <v>580.741913025719</v>
+        <v>1306.243635551744</v>
       </c>
       <c r="E42" t="n">
-        <v>444.2954221366068</v>
+        <v>1169.797144662632</v>
       </c>
       <c r="F42" t="n">
-        <v>319.8636160197386</v>
+        <v>1045.365338545763</v>
       </c>
       <c r="G42" t="n">
-        <v>199.803798091603</v>
+        <v>925.3055206176277</v>
       </c>
       <c r="H42" t="n">
-        <v>111.5063816922039</v>
+        <v>837.0081042182287</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411553</v>
+        <v>787.6208502301403</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>787.6208502301403</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>1107.359996292367</v>
       </c>
       <c r="L42" t="n">
-        <v>545.6852136024288</v>
+        <v>1590.92608219068</v>
       </c>
       <c r="M42" t="n">
-        <v>1173.45686322911</v>
+        <v>1590.92608219068</v>
       </c>
       <c r="N42" t="n">
-        <v>1629.56928853388</v>
+        <v>1949.449642343508</v>
       </c>
       <c r="O42" t="n">
-        <v>2146.089571124861</v>
+        <v>2465.969924934489</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2871.591293650886</v>
       </c>
       <c r="Q42" t="n">
-        <v>2380.454662679751</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R42" t="n">
-        <v>2356.537619577816</v>
+        <v>3082.039342103841</v>
       </c>
       <c r="S42" t="n">
-        <v>2221.606942477685</v>
+        <v>2947.10866500371</v>
       </c>
       <c r="T42" t="n">
-        <v>2044.623130676593</v>
+        <v>2770.124853202618</v>
       </c>
       <c r="U42" t="n">
-        <v>1834.559987355235</v>
+        <v>2560.06170988126</v>
       </c>
       <c r="V42" t="n">
-        <v>1612.019985726302</v>
+        <v>2337.521708252327</v>
       </c>
       <c r="W42" t="n">
-        <v>1381.902739859589</v>
+        <v>2107.404462385613</v>
       </c>
       <c r="X42" t="n">
-        <v>1192.595662209601</v>
+        <v>1918.097384735625</v>
       </c>
       <c r="Y42" t="n">
-        <v>1013.281445285108</v>
+        <v>1738.783167811132</v>
       </c>
     </row>
     <row r="43">
@@ -7543,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>62.11912770411553</v>
+        <v>217.7522408016008</v>
       </c>
       <c r="C43" t="n">
-        <v>62.11912770411553</v>
+        <v>217.7522408016008</v>
       </c>
       <c r="D43" t="n">
         <v>62.11912770411553</v>
@@ -7594,25 +7596,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S43" t="n">
-        <v>806.3890324773372</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T43" t="n">
-        <v>570.6699806455713</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U43" t="n">
-        <v>285.2311888874722</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V43" t="n">
-        <v>285.2311888874722</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W43" t="n">
-        <v>285.2311888874722</v>
+        <v>217.7522408016008</v>
       </c>
       <c r="X43" t="n">
-        <v>285.2311888874722</v>
+        <v>217.7522408016008</v>
       </c>
       <c r="Y43" t="n">
-        <v>62.11912770411553</v>
+        <v>217.7522408016008</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1665.394817750351</v>
+        <v>1687.330521867794</v>
       </c>
       <c r="C44" t="n">
-        <v>1665.394817750351</v>
+        <v>1294.155020370725</v>
       </c>
       <c r="D44" t="n">
-        <v>1279.953688967018</v>
+        <v>1294.155020370725</v>
       </c>
       <c r="E44" t="n">
-        <v>877.3701640835627</v>
+        <v>891.5714954872692</v>
       </c>
       <c r="F44" t="n">
-        <v>460.4757256135405</v>
+        <v>474.677057017247</v>
       </c>
       <c r="G44" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I44" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J44" t="n">
-        <v>191.9627430103717</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K44" t="n">
-        <v>191.9627430103717</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L44" t="n">
-        <v>503.6092283712875</v>
+        <v>648.9861522035832</v>
       </c>
       <c r="M44" t="n">
-        <v>1049.610128415868</v>
+        <v>1299.075816992685</v>
       </c>
       <c r="N44" t="n">
-        <v>1577.42141205333</v>
+        <v>1932.660130409688</v>
       </c>
       <c r="O44" t="n">
-        <v>2017.461012945658</v>
+        <v>2472.578203952837</v>
       </c>
       <c r="P44" t="n">
-        <v>2365.64850507718</v>
+        <v>2906.009661721701</v>
       </c>
       <c r="Q44" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>2327.655591362702</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>2327.655591362702</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T44" t="n">
-        <v>2263.254356612234</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U44" t="n">
-        <v>2007.501627046832</v>
+        <v>2873.768581725533</v>
       </c>
       <c r="V44" t="n">
-        <v>1665.394817750351</v>
+        <v>2873.768581725533</v>
       </c>
       <c r="W44" t="n">
-        <v>1665.394817750351</v>
+        <v>2873.768581725533</v>
       </c>
       <c r="X44" t="n">
-        <v>1665.394817750351</v>
+        <v>2484.31597665859</v>
       </c>
       <c r="Y44" t="n">
-        <v>1665.394817750351</v>
+        <v>2087.825267579191</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>846.6789532415746</v>
+        <v>846.8942493872726</v>
       </c>
       <c r="C45" t="n">
-        <v>696.0247228016668</v>
+        <v>696.2400189473648</v>
       </c>
       <c r="D45" t="n">
-        <v>565.9357554231472</v>
+        <v>566.1510515688451</v>
       </c>
       <c r="E45" t="n">
-        <v>429.4892645340348</v>
+        <v>429.7045606797329</v>
       </c>
       <c r="F45" t="n">
-        <v>305.0574584171666</v>
+        <v>305.2727545628647</v>
       </c>
       <c r="G45" t="n">
-        <v>184.9976404890311</v>
+        <v>185.5365471806598</v>
       </c>
       <c r="H45" t="n">
-        <v>96.70022408963202</v>
+        <v>100.3645273695911</v>
       </c>
       <c r="I45" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>47.31297010154361</v>
+        <v>433.0743856833844</v>
       </c>
       <c r="L45" t="n">
-        <v>272.5108437565973</v>
+        <v>985.5068545149402</v>
       </c>
       <c r="M45" t="n">
-        <v>858.0088487631995</v>
+        <v>1693.64232480728</v>
       </c>
       <c r="N45" t="n">
-        <v>1443.506853769802</v>
+        <v>1872.247908096569</v>
       </c>
       <c r="O45" t="n">
-        <v>1960.027136360783</v>
+        <v>1872.247908096569</v>
       </c>
       <c r="P45" t="n">
-        <v>2365.64850507718</v>
+        <v>2338.434968766254</v>
       </c>
       <c r="Q45" t="n">
-        <v>2365.64850507718</v>
+        <v>2338.434968766254</v>
       </c>
       <c r="R45" t="n">
-        <v>2341.731461975245</v>
+        <v>2334.610166402014</v>
       </c>
       <c r="S45" t="n">
-        <v>2206.800784875114</v>
+        <v>2205.690413258095</v>
       </c>
       <c r="T45" t="n">
-        <v>2029.816973074021</v>
+        <v>2030.010979052224</v>
       </c>
       <c r="U45" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.969125898361</v>
       </c>
       <c r="V45" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.429124269428</v>
       </c>
       <c r="W45" t="n">
-        <v>1367.096582257017</v>
+        <v>1367.311878402715</v>
       </c>
       <c r="X45" t="n">
-        <v>1177.789504607029</v>
+        <v>1178.004800752727</v>
       </c>
       <c r="Y45" t="n">
-        <v>998.475287682536</v>
+        <v>998.6905838282339</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>373.1512011330396</v>
+        <v>139.0818676762667</v>
       </c>
       <c r="C46" t="n">
-        <v>202.9460831990289</v>
+        <v>139.0818676762667</v>
       </c>
       <c r="D46" t="n">
-        <v>47.31297010154361</v>
+        <v>139.0818676762667</v>
       </c>
       <c r="E46" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F46" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G46" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H46" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I46" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>129.1480112114855</v>
+        <v>174.8475250512995</v>
       </c>
       <c r="L46" t="n">
-        <v>293.2756510852853</v>
+        <v>378.5080246984842</v>
       </c>
       <c r="M46" t="n">
-        <v>479.5672294235493</v>
+        <v>606.4814607518316</v>
       </c>
       <c r="N46" t="n">
-        <v>662.7568634547586</v>
+        <v>830.3618510851924</v>
       </c>
       <c r="O46" t="n">
-        <v>825.4616304964666</v>
+        <v>1030.651117561692</v>
       </c>
       <c r="P46" t="n">
-        <v>945.3377962730451</v>
+        <v>1182.687315527651</v>
       </c>
       <c r="Q46" t="n">
-        <v>948.7599926430961</v>
+        <v>1208.375451201398</v>
       </c>
       <c r="R46" t="n">
-        <v>824.8590032756731</v>
+        <v>1208.375451201398</v>
       </c>
       <c r="S46" t="n">
-        <v>622.0429194582225</v>
+        <v>1208.375451201398</v>
       </c>
       <c r="T46" t="n">
-        <v>558.3592198243409</v>
+        <v>973.8156082708589</v>
       </c>
       <c r="U46" t="n">
-        <v>558.3592198243409</v>
+        <v>688.3916149242648</v>
       </c>
       <c r="V46" t="n">
-        <v>558.3592198243409</v>
+        <v>422.412269745089</v>
       </c>
       <c r="W46" t="n">
-        <v>558.3592198243409</v>
+        <v>139.0818676762667</v>
       </c>
       <c r="X46" t="n">
-        <v>558.3592198243409</v>
+        <v>139.0818676762667</v>
       </c>
       <c r="Y46" t="n">
-        <v>558.3592198243409</v>
+        <v>139.0818676762667</v>
       </c>
     </row>
   </sheetData>
@@ -7979,10 +7981,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>614.1534811140714</v>
       </c>
       <c r="M2" t="n">
         <v>701.2411122488187</v>
@@ -7991,10 +7993,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
         <v>144.4986984183922</v>
@@ -8058,19 +8060,19 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>621.5900809302183</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N3" t="n">
-        <v>676.7842391234617</v>
+        <v>415.8062469585531</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8213,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
@@ -8228,10 +8230,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
-        <v>545.7463662600596</v>
+        <v>410.5393874591622</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8301,19 +8303,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>454.5321323046934</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N6" t="n">
-        <v>85.37211285416666</v>
+        <v>502.5559668112513</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8456,10 +8458,10 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>427.440794103012</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>477.1304116531281</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8529,16 +8531,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>471.718680573788</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>92.38712204931191</v>
+        <v>186.0888404416876</v>
       </c>
       <c r="N9" t="n">
         <v>676.7842391234617</v>
@@ -8550,7 +8552,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8690,7 +8692,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K11" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L11" t="n">
         <v>651.5514946987026</v>
@@ -8699,10 +8701,10 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N11" t="n">
-        <v>682.2612020826953</v>
+        <v>644.8631884980639</v>
       </c>
       <c r="O11" t="n">
-        <v>194.0418287534719</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P11" t="n">
         <v>502.0059847475129</v>
@@ -8766,28 +8768,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N12" t="n">
-        <v>151.5659933015353</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>401.3056843235811</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8924,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
-        <v>417.2510275517577</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L14" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M14" t="n">
         <v>701.2411122488187</v>
@@ -8939,13 +8941,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O14" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P14" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q14" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9006,7 +9008,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
@@ -9015,16 +9017,16 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N15" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>235.8239269133925</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>98.45345285401062</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
         <v>505.666843611017</v>
@@ -9173,7 +9175,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N17" t="n">
-        <v>682.2612020826953</v>
+        <v>393.9156246749224</v>
       </c>
       <c r="O17" t="n">
         <v>149.5638374240964</v>
@@ -9182,7 +9184,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>188.9766897477674</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9243,16 +9245,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>588.3030135638863</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N18" t="n">
-        <v>676.7842391234617</v>
+        <v>415.8062469585524</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9401,7 +9403,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L20" t="n">
         <v>651.5514946987026</v>
@@ -9413,7 +9415,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O20" t="n">
-        <v>594.0482827698827</v>
+        <v>223.8267004481029</v>
       </c>
       <c r="P20" t="n">
         <v>502.0059847475129</v>
@@ -9486,16 +9488,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>351.8313913012159</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>235.8239269133925</v>
       </c>
       <c r="Q21" t="n">
         <v>90.98815315591399</v>
@@ -9717,16 +9719,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>373.1055958271594</v>
+        <v>684.2495388215582</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9893,7 +9895,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q26" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R26" t="n">
         <v>102.5176150018526</v>
@@ -9963,13 +9965,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>373.1055958271594</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
         <v>90.98815315591399</v>
@@ -10130,7 +10132,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q29" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R29" t="n">
         <v>102.5176150018526</v>
@@ -10191,13 +10193,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>351.8313913012159</v>
+        <v>201.8486954419035</v>
       </c>
       <c r="N30" t="n">
         <v>747.7741039759435</v>
@@ -10206,10 +10208,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10364,7 +10366,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P32" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q32" t="n">
         <v>331.2113854294513</v>
@@ -10434,10 +10436,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>351.8313913012159</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>373.1055958271594</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10674,16 +10676,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>373.1055958271594</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>126.0381992661173</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10838,7 +10840,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P38" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q38" t="n">
         <v>331.2113854294513</v>
@@ -10902,10 +10904,10 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>290.5921503773105</v>
       </c>
       <c r="M39" t="n">
         <v>726.4998994499999</v>
@@ -10917,7 +10919,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>122.133410929518</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
         <v>90.98815315591399</v>
@@ -11139,22 +11141,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>546.0917343741362</v>
+        <v>447.5171231095479</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
         <v>327.7205688679246</v>
@@ -11294,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>263.7907196684351</v>
+        <v>66.85930902235421</v>
       </c>
       <c r="K44" t="n">
-        <v>143.0584031792374</v>
+        <v>66.89160419125324</v>
       </c>
       <c r="L44" t="n">
-        <v>468.0425993879824</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M44" t="n">
         <v>701.2411122488187</v>
@@ -11315,7 +11317,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q44" t="n">
-        <v>144.4986984183922</v>
+        <v>281.803804845146</v>
       </c>
       <c r="R44" t="n">
         <v>102.5176150018526</v>
@@ -11373,28 +11375,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>52.17609846406338</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>317.5329465084876</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>683.7992483186069</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>676.7842391234617</v>
+        <v>182.4577405517652</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>16.46232962463525</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>50.09263685995591</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -22547,13 +22549,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>148.8023946611742</v>
       </c>
       <c r="F2" t="n">
         <v>412.725494085322</v>
@@ -22595,16 +22597,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>110.4150894827</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22708,25 +22710,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,19 +22752,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>210.2831670182382</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -22781,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
@@ -22799,7 +22801,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -22829,22 +22831,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>203.176235932975</v>
       </c>
       <c r="W5" t="n">
-        <v>43.36027741306845</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22987,25 +22989,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>210.2831670182382</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>165.7080202947459</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -23018,25 +23020,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>126.1313825944755</v>
       </c>
       <c r="H8" t="n">
-        <v>15.34091721373591</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -23066,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23182,25 +23184,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23224,19 +23226,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>210.2831670182382</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
         <v>398.5576896346209</v>
@@ -23273,7 +23275,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
         <v>136.9537457384598</v>
@@ -23306,7 +23308,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>163.355598201473</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23318,10 +23320,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>59.85708420411828</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23419,25 +23421,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>210.2831670182382</v>
       </c>
       <c r="W13" t="n">
         <v>280.4970980481341</v>
@@ -23501,7 +23503,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>91.12572915734376</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
         <v>412.725494085322</v>
@@ -23540,10 +23542,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23555,10 +23557,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>262.3184882898115</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,31 +23652,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.63158231515078</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="17">
@@ -23732,10 +23734,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23744,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>409.0311279568768</v>
+        <v>164.7276461892773</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23783,7 +23785,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>217.9094189397919</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
         <v>253.1952022697474</v>
@@ -23795,7 +23797,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23941,22 +23943,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>107.7142051367364</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>165.7080202947459</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23969,22 +23971,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
         <v>136.9537457384598</v>
@@ -24020,22 +24022,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
-        <v>221.2655964161775</v>
+        <v>59.85708420411831</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>80.63598792750423</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24136,16 +24138,16 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J22" t="n">
         <v>30.07448747215907</v>
@@ -24175,16 +24177,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>39.02878557500762</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>210.2831670182379</v>
       </c>
       <c r="W22" t="n">
         <v>280.4970980481341</v>
@@ -24209,19 +24211,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
         <v>136.9537457384598</v>
@@ -24254,25 +24256,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>294.2602345284338</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>87.60371089983539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24415,7 +24417,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>167.3303626133475</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>167.3303626133469</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
@@ -24446,13 +24448,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>30.27239438529131</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24488,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
         <v>164.8484195083599</v>
@@ -24497,16 +24499,16 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>152.3195699869349</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>303.9007405500964</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24686,16 +24688,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>320.8422199291742</v>
+        <v>218.049354039965</v>
       </c>
       <c r="I29" t="n">
         <v>136.9537457384598</v>
@@ -24746,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -24844,19 +24846,19 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>150.0792051895063</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J31" t="n">
         <v>30.07448747215907</v>
@@ -24889,7 +24891,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T31" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>282.5844038405181</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>74.04686661181503</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24920,10 +24922,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24935,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,10 +24967,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>221.2655964161775</v>
+        <v>216.0851444489868</v>
       </c>
       <c r="U32" t="n">
         <v>253.1952022697474</v>
@@ -24980,10 +24982,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>87.60371089983539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25072,31 +25074,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>196.7408411893304</v>
       </c>
       <c r="V34" t="n">
         <v>263.319551727384</v>
@@ -25138,10 +25140,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>220.1269184951918</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -25151,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>127.0828126797256</v>
+        <v>297.3827829849214</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,7 +25204,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>221.2655964161775</v>
@@ -25211,7 +25213,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25220,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25324,7 +25326,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>100.5400146614482</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H37" t="n">
         <v>153.923765528121</v>
@@ -25366,7 +25368,7 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>165.708020294746</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>220.8809405715231</v>
@@ -25391,25 +25393,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,22 +25438,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>1.867748656681897</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>138.0218971728315</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25558,7 +25560,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>42.58594000437023</v>
       </c>
       <c r="G40" t="n">
         <v>166.5715133615489</v>
@@ -25600,7 +25602,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>167.3303626133475</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
@@ -25631,10 +25633,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>61.54103933851678</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25643,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
         <v>136.9537457384598</v>
@@ -25673,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>338.6857412035168</v>
@@ -25691,10 +25693,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>252.4521304081952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25789,7 +25791,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>154.0032240193895</v>
@@ -25834,25 +25836,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>45.18257638862872</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>88.04528326640971</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -25862,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25880,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>320.8422199291742</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I44" t="n">
-        <v>136.9537457384598</v>
+        <v>113.8693593270194</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>164.8484195083599</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T44" t="n">
-        <v>157.5083740132136</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>23.28137458935666</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,31 +26022,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>77.81011144695989</v>
       </c>
       <c r="F46" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>166.5715133615489</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H46" t="n">
-        <v>153.923765528121</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I46" t="n">
-        <v>131.7634811092929</v>
+        <v>123.6862121416195</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>11.085091836852</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26068,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T46" t="n">
-        <v>170.3149986759054</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>231.7395189948467</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>633170.5901382854</v>
+        <v>633170.5901382857</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>633170.5901382858</v>
+        <v>633170.5901382857</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>633170.5901382854</v>
+        <v>633170.5901382857</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>633170.5901382853</v>
+        <v>633170.5901382854</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>633170.5901382857</v>
+        <v>633170.5901382855</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>713357.1069856577</v>
+        <v>633170.5901382857</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>713357.1069856577</v>
+        <v>713357.1069856581</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>713357.1069856576</v>
+        <v>713357.1069856577</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>713357.1069856577</v>
+        <v>713357.1069856578</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>713357.1069856576</v>
+        <v>713357.1069856577</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>633170.5901382852</v>
+        <v>721068.2688540283</v>
       </c>
     </row>
   </sheetData>
@@ -26317,7 +26319,7 @@
         <v>214566.1743955704</v>
       </c>
       <c r="D2" t="n">
-        <v>214566.1743955703</v>
+        <v>214566.1743955704</v>
       </c>
       <c r="E2" t="n">
         <v>214566.1743955704</v>
@@ -26326,25 +26328,25 @@
         <v>214566.1743955704</v>
       </c>
       <c r="G2" t="n">
-        <v>214566.1743955703</v>
+        <v>214566.1743955704</v>
       </c>
       <c r="H2" t="n">
-        <v>241723.0823229922</v>
+        <v>214566.1743955704</v>
       </c>
       <c r="I2" t="n">
-        <v>241723.0823229922</v>
+        <v>241723.0823229923</v>
       </c>
       <c r="J2" t="n">
-        <v>241723.0823229922</v>
+        <v>241723.0823229923</v>
       </c>
       <c r="K2" t="n">
         <v>241723.0823229922</v>
       </c>
       <c r="L2" t="n">
+        <v>241723.0823229922</v>
+      </c>
+      <c r="M2" t="n">
         <v>241723.0823229923</v>
-      </c>
-      <c r="M2" t="n">
-        <v>241723.0823229922</v>
       </c>
       <c r="N2" t="n">
         <v>241723.0823229922</v>
@@ -26353,7 +26355,7 @@
         <v>241723.0823229922</v>
       </c>
       <c r="P2" t="n">
-        <v>214566.1743955705</v>
+        <v>248195.4208190849</v>
       </c>
     </row>
     <row r="3">
@@ -26381,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>49935.4322074041</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>49215.85294791909</v>
       </c>
       <c r="J3" t="n">
         <v>154739.4343656034</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>99134.89074852428</v>
       </c>
     </row>
     <row r="4">
@@ -26418,13 +26420,13 @@
         <v>57691.12693712542</v>
       </c>
       <c r="C4" t="n">
+        <v>57691.12693712541</v>
+      </c>
+      <c r="D4" t="n">
         <v>57691.12693712542</v>
       </c>
-      <c r="D4" t="n">
-        <v>57691.1269371254</v>
-      </c>
       <c r="E4" t="n">
-        <v>57691.12693712542</v>
+        <v>57691.12693712541</v>
       </c>
       <c r="F4" t="n">
         <v>57691.12693712541</v>
@@ -26433,7 +26435,7 @@
         <v>57691.12693712542</v>
       </c>
       <c r="H4" t="n">
-        <v>65070.2855682401</v>
+        <v>57691.12693712541</v>
       </c>
       <c r="I4" t="n">
         <v>65070.2855682401</v>
@@ -26457,7 +26459,7 @@
         <v>65070.2855682401</v>
       </c>
       <c r="P4" t="n">
-        <v>57691.12693712542</v>
+        <v>55414.53102491517</v>
       </c>
     </row>
     <row r="5">
@@ -26485,7 +26487,7 @@
         <v>35957.85727717314</v>
       </c>
       <c r="H5" t="n">
-        <v>47210.5370551278</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="I5" t="n">
         <v>47210.5370551278</v>
@@ -26509,7 +26511,7 @@
         <v>47210.5370551278</v>
       </c>
       <c r="P5" t="n">
-        <v>35957.85727717314</v>
+        <v>50457.56011232611</v>
       </c>
     </row>
     <row r="6">
@@ -26522,10 +26524,10 @@
         <v>-110906.2158104731</v>
       </c>
       <c r="C6" t="n">
-        <v>87289.59018127181</v>
+        <v>87289.59018127187</v>
       </c>
       <c r="D6" t="n">
-        <v>87289.59018127178</v>
+        <v>87289.59018127187</v>
       </c>
       <c r="E6" t="n">
         <v>120917.1901812719</v>
@@ -26534,22 +26536,22 @@
         <v>120917.1901812718</v>
       </c>
       <c r="G6" t="n">
+        <v>120917.1901812719</v>
+      </c>
+      <c r="H6" t="n">
         <v>120917.1901812718</v>
       </c>
-      <c r="H6" t="n">
-        <v>79506.82749222021</v>
-      </c>
       <c r="I6" t="n">
+        <v>80226.40675170528</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-25297.17466597905</v>
+      </c>
+      <c r="K6" t="n">
         <v>129442.2596996244</v>
       </c>
-      <c r="J6" t="n">
-        <v>-25297.17466597912</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>129442.2596996243</v>
-      </c>
-      <c r="L6" t="n">
-        <v>129442.2596996244</v>
       </c>
       <c r="M6" t="n">
         <v>129442.2596996244</v>
@@ -26558,10 +26560,10 @@
         <v>129442.2596996243</v>
       </c>
       <c r="O6" t="n">
-        <v>129442.2596996244</v>
+        <v>129442.2596996243</v>
       </c>
       <c r="P6" t="n">
-        <v>120917.1901812719</v>
+        <v>43188.43893331932</v>
       </c>
     </row>
   </sheetData>
@@ -26777,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>148.9460117980881</v>
       </c>
     </row>
     <row r="4">
@@ -26805,7 +26807,7 @@
         <v>591.4121262692951</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
@@ -26829,7 +26831,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>591.4121262692951</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>148.9460117980881</v>
       </c>
     </row>
     <row r="4">
@@ -27027,10 +27029,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>185.076970032149</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>591.4121262692951</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>185.076970032149</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.5987779368767356</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>6.132234546038871</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>23.08438641144037</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>50.82052891999189</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>76.16679898798412</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>94.49164927367555</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>105.1401664086072</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>106.8414442217582</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>100.8873461119402</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>86.10501579529576</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>64.66128093089763</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>13.64465223657863</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>2.621150418677912</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.04790223495013884</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.3203744404713593</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>3.094142622447076</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>11.03043577938672</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>30.26835886926997</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>51.73344638085104</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>69.56200296287125</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>81.17557642995801</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>83.32405239259271</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>76.22522926425364</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>61.17746661948265</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>40.89551629595808</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>19.89131833031827</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>5.950814716650026</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1.291333819268329</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.02107726582048417</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.2685911688162244</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2.38801966456607</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>8.077268967673369</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>18.98939563530707</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>31.20541034064861</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>39.93218158927759</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>42.10288658089234</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>41.10177404257735</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>37.96414084322417</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>32.48488099937317</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>22.4908477815113</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>12.07683564513678</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>4.680811551097292</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1.147616812214777</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.01465042738997589</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,10 +34701,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>460.9053113835797</v>
       </c>
       <c r="M2" t="n">
         <v>551.5160606510915</v>
@@ -34711,10 +34713,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>529.2029588809064</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N3" t="n">
-        <v>591.4121262692951</v>
+        <v>330.4341341043864</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34933,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
@@ -34948,10 +34950,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
-        <v>396.1825288359632</v>
+        <v>260.9755500350659</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35021,19 +35023,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>362.1450102553815</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>417.1838539570846</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,10 +35178,10 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>274.1926243725203</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>327.4053600554008</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35249,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>381.6583337168698</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>93.70171839237568</v>
       </c>
       <c r="N9" t="n">
         <v>591.4121262692951</v>
@@ -35270,7 +35272,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,7 +35412,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>498.303324968211</v>
@@ -35419,10 +35421,10 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N11" t="n">
-        <v>533.1427107449111</v>
+        <v>495.7446971602798</v>
       </c>
       <c r="O11" t="n">
-        <v>44.47799132937547</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P11" t="n">
         <v>351.7045375065877</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N12" t="n">
-        <v>66.19388044736863</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>314.2223195042665</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K14" t="n">
-        <v>274.1926243725203</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M14" t="n">
         <v>551.5160606510915</v>
@@ -35659,13 +35661,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>444.4844453457863</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P14" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
@@ -35735,16 +35737,16 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N15" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>148.7405620940779</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>7.465299698096623</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K17" t="n">
         <v>362.6084404317796</v>
@@ -35893,7 +35895,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N17" t="n">
-        <v>533.1427107449111</v>
+        <v>244.7971333371383</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -35902,7 +35904,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>44.47799132937524</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>495.9158915145744</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N18" t="n">
-        <v>591.4121262692951</v>
+        <v>330.4341341043857</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -36121,7 +36123,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>498.303324968211</v>
@@ -36133,7 +36135,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>444.4844453457863</v>
+        <v>74.26286302400655</v>
       </c>
       <c r="P20" t="n">
         <v>351.7045375065877</v>
@@ -36206,16 +36208,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>259.444269251904</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>148.7405620940779</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36437,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>287.7334829729927</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36613,7 +36615,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36683,13 +36685,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36850,7 +36852,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36911,13 +36913,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>259.444269251904</v>
+        <v>109.4615733925916</v>
       </c>
       <c r="N30" t="n">
         <v>662.4019911217769</v>
@@ -36926,10 +36928,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37084,7 +37086,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
@@ -37154,10 +37156,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>259.444269251904</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37394,16 +37396,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>287.7334829729927</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37558,7 +37560,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P38" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q38" t="n">
         <v>186.7126870110591</v>
@@ -37622,10 +37624,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>200.5318035203923</v>
       </c>
       <c r="M39" t="n">
         <v>634.1127774006881</v>
@@ -37637,7 +37639,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>35.05004611020335</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37859,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>460.7196215199696</v>
+        <v>362.1450102553813</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
         <v>236.7324157120106</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>314.7944296574907</v>
+        <v>592.7949742418865</v>
       </c>
       <c r="M44" t="n">
-        <v>551.5160606510915</v>
+        <v>656.6562270596987</v>
       </c>
       <c r="N44" t="n">
-        <v>533.1427107449111</v>
+        <v>639.9841549666694</v>
       </c>
       <c r="O44" t="n">
-        <v>444.4844453457863</v>
+        <v>545.3717914577264</v>
       </c>
       <c r="P44" t="n">
-        <v>351.7045375065877</v>
+        <v>437.8095533018835</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>201.9663873576515</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L45" t="n">
-        <v>227.4725996515694</v>
+        <v>558.0125947793492</v>
       </c>
       <c r="M45" t="n">
-        <v>591.4121262692951</v>
+        <v>715.2883538306461</v>
       </c>
       <c r="N45" t="n">
-        <v>591.4121262692951</v>
+        <v>180.4096800901913</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38175,25 +38177,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>82.66165768680997</v>
+        <v>113.8670680274586</v>
       </c>
       <c r="L46" t="n">
-        <v>165.78549482202</v>
+        <v>205.7176764112976</v>
       </c>
       <c r="M46" t="n">
-        <v>188.1733114527919</v>
+        <v>230.2761980336843</v>
       </c>
       <c r="N46" t="n">
-        <v>185.0400343749588</v>
+        <v>226.1418084175361</v>
       </c>
       <c r="O46" t="n">
-        <v>164.3482495370789</v>
+        <v>202.312390380303</v>
       </c>
       <c r="P46" t="n">
-        <v>121.0870361379582</v>
+        <v>153.5719171373313</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.456764010152483</v>
+        <v>25.94761179166379</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_5_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_5_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>653973.7054883451</v>
+        <v>648626.482539691</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2881388.79929313</v>
+        <v>2688149.654238722</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8932878.199008647</v>
+        <v>8966943.138461767</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7752553.712286927</v>
+        <v>7748100.708448338</v>
       </c>
     </row>
     <row r="11">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>130.2073136987934</v>
       </c>
       <c r="E2" t="n">
-        <v>249.7552949734467</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
@@ -727,7 +727,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>70.79933954633118</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>53.0363847091458</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -901,19 +901,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>318.4570138896891</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>135.5095052705418</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>146.8340739597078</v>
       </c>
       <c r="V7" t="n">
-        <v>53.0363847091458</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>346.5043433490544</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>282.8997453624013</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
@@ -1350,10 +1350,10 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>53.0363847091458</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>75.49575578310093</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,19 +1426,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>325.7009948121554</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>164.0116202804579</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>53.0363847091458</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>104.6965093559885</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>123.2395907264622</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1770,25 +1770,25 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>8.720235254278206</v>
       </c>
       <c r="G17" t="n">
-        <v>244.3034817675996</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
         <v>392.5258019886049</v>
@@ -2055,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>233.3618613134482</v>
+        <v>157.227688909249</v>
       </c>
       <c r="U19" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
-        <v>155.6053465906476</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2092,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
-        <v>161.4085122120592</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
         <v>253.1952022697474</v>
@@ -2143,13 +2143,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>23.46469688151565</v>
       </c>
     </row>
     <row r="21">
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U22" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>53.03638470914613</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,10 +2320,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>259.4355016037796</v>
       </c>
       <c r="E23" t="n">
         <v>398.5576896346209</v>
@@ -2332,13 +2332,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,19 +2374,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>73.02881015296157</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2538,7 +2538,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>113.1667354347872</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>389.2437464820987</v>
@@ -2566,16 +2566,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>34.25133717667561</v>
       </c>
       <c r="G26" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>233.2385090293388</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
         <v>392.5258019886049</v>
@@ -2766,19 +2766,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U28" t="n">
-        <v>116.876383545772</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2806,13 +2806,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>102.7928658892093</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>123.4521783599269</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -3006,19 +3006,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>95.98918911403638</v>
       </c>
       <c r="W31" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>157.6926523830317</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,13 +3031,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>6.805593307774584</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
         <v>412.725494085322</v>
@@ -3082,7 +3082,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>5.180451967190661</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,19 +3198,19 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>85.84356265118763</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>99.10701526936145</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3277,16 +3277,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,25 +3313,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>191.0982260229669</v>
       </c>
       <c r="Y35" t="n">
         <v>392.5258019886049</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>116.876383545772</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
         <v>263.319551727384</v>
@@ -3489,7 +3489,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3508,16 +3508,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>409.0311279568768</v>
+        <v>302.1480073738684</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>229.2671475085639</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
         <v>385.5580790162737</v>
@@ -3669,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>113.1667354347865</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>175.3478264080952</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3748,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>337.0166502961041</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
         <v>412.725494085322</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>64.41872800020373</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,16 +3787,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U43" t="n">
         <v>282.5844038405181</v>
@@ -3960,7 +3960,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>192.4518147817244</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>50.6483166794356</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>408.4323500200001</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
-        <v>229.8659254454406</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
         <v>385.5580790162737</v>
@@ -4070,13 +4070,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>118.5388453083828</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H45" t="n">
-        <v>84.320299612958</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I45" t="n">
-        <v>37.86294566882081</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>3.786554340597835</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S45" t="n">
-        <v>127.6305556124798</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T45" t="n">
-        <v>173.9226398638123</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U45" t="n">
-        <v>207.9414346223241</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V45" t="n">
         <v>220.3146016126436</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>76.19311257242961</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5697534131281</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
@@ -4200,7 +4200,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>299.5910458322979</v>
+        <v>178.8355091912339</v>
       </c>
       <c r="C2" t="n">
-        <v>299.5910458322979</v>
+        <v>178.8355091912339</v>
       </c>
       <c r="D2" t="n">
-        <v>299.5910458322979</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E2" t="n">
         <v>47.31297010154361</v>
@@ -4333,16 +4333,16 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K2" t="n">
-        <v>47.31297010154361</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L2" t="n">
-        <v>503.6092283712875</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M2" t="n">
-        <v>1049.610128415868</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N2" t="n">
-        <v>1577.42141205333</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O2" t="n">
         <v>2017.461012945658</v>
@@ -4354,28 +4354,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S2" t="n">
-        <v>2199.134950018231</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T2" t="n">
-        <v>2199.134950018231</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U2" t="n">
-        <v>2199.134950018231</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V2" t="n">
-        <v>1857.028140721749</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W2" t="n">
-        <v>1486.029105690037</v>
+        <v>968.782859969574</v>
       </c>
       <c r="X2" t="n">
-        <v>1096.576500623094</v>
+        <v>579.3302549026308</v>
       </c>
       <c r="Y2" t="n">
-        <v>700.0857915436948</v>
+        <v>579.3302549026308</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J3" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K3" t="n">
-        <v>47.31297010154367</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L3" t="n">
-        <v>530.879055999857</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M3" t="n">
-        <v>1116.377061006459</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N3" t="n">
-        <v>1443.506853769802</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O3" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P3" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q3" t="n">
         <v>2365.64850507718</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47.31297010154361</v>
+        <v>274.4605675892624</v>
       </c>
       <c r="C4" t="n">
-        <v>47.31297010154361</v>
+        <v>274.4605675892624</v>
       </c>
       <c r="D4" t="n">
-        <v>47.31297010154361</v>
+        <v>118.8274544917771</v>
       </c>
       <c r="E4" t="n">
         <v>47.31297010154361</v>
@@ -4512,28 +4512,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R4" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S4" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T4" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U4" t="n">
-        <v>100.8850758683575</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V4" t="n">
-        <v>47.31297010154361</v>
+        <v>682.7806474639203</v>
       </c>
       <c r="W4" t="n">
-        <v>47.31297010154361</v>
+        <v>682.7806474639203</v>
       </c>
       <c r="X4" t="n">
-        <v>47.31297010154361</v>
+        <v>682.7806474639203</v>
       </c>
       <c r="Y4" t="n">
-        <v>47.31297010154361</v>
+        <v>459.6685862805637</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>784.5587760470498</v>
+        <v>1199.043915487289</v>
       </c>
       <c r="C5" t="n">
-        <v>784.5587760470498</v>
+        <v>1199.043915487289</v>
       </c>
       <c r="D5" t="n">
-        <v>784.5587760470498</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="E5" t="n">
-        <v>784.5587760470498</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F5" t="n">
-        <v>784.5587760470498</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G5" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H5" t="n">
         <v>47.31297010154361</v>
@@ -4570,19 +4570,19 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K5" t="n">
-        <v>191.9627430103717</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L5" t="n">
-        <v>685.2830347289006</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M5" t="n">
-        <v>1231.283934773481</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N5" t="n">
-        <v>1759.095218410943</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O5" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P5" t="n">
         <v>2365.64850507718</v>
@@ -4600,19 +4600,19 @@
         <v>1937.641433863169</v>
       </c>
       <c r="U5" t="n">
-        <v>1681.888704297768</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V5" t="n">
-        <v>1545.010416145706</v>
+        <v>1595.534624566688</v>
       </c>
       <c r="W5" t="n">
-        <v>1174.011381113993</v>
+        <v>1595.534624566688</v>
       </c>
       <c r="X5" t="n">
-        <v>784.5587760470498</v>
+        <v>1595.534624566688</v>
       </c>
       <c r="Y5" t="n">
-        <v>784.5587760470498</v>
+        <v>1199.043915487289</v>
       </c>
     </row>
     <row r="6">
@@ -4622,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C6" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D6" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E6" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F6" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G6" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H6" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J6" t="n">
-        <v>47.31297010154367</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K6" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L6" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M6" t="n">
-        <v>1436.116207068686</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N6" t="n">
-        <v>1849.128222486199</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O6" t="n">
-        <v>2365.64850507718</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P6" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q6" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R6" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S6" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T6" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U6" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V6" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W6" t="n">
         <v>1367.096582257017</v>
@@ -4691,7 +4691,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y6" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="7">
@@ -4749,22 +4749,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R7" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S7" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T7" t="n">
-        <v>386.3238676264566</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U7" t="n">
-        <v>100.8850758683575</v>
+        <v>564.7236943873829</v>
       </c>
       <c r="V7" t="n">
-        <v>47.31297010154361</v>
+        <v>564.7236943873829</v>
       </c>
       <c r="W7" t="n">
-        <v>47.31297010154361</v>
+        <v>281.3932923185605</v>
       </c>
       <c r="X7" t="n">
         <v>47.31297010154361</v>
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1931.164882283303</v>
+        <v>1537.146688151772</v>
       </c>
       <c r="C8" t="n">
-        <v>1537.989380786234</v>
+        <v>1537.146688151772</v>
       </c>
       <c r="D8" t="n">
-        <v>1152.548252002902</v>
+        <v>1187.142300930505</v>
       </c>
       <c r="E8" t="n">
-        <v>749.964727119446</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="F8" t="n">
-        <v>333.0702886494238</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H8" t="n">
         <v>47.31297010154361</v>
@@ -4804,25 +4804,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L8" t="n">
-        <v>540.6332618200724</v>
+        <v>685.2830347289006</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>1231.283934773481</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4831,25 +4831,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2327.655591362702</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2327.655591362702</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2327.655591362702</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V8" t="n">
-        <v>2327.655591362702</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="W8" t="n">
-        <v>2327.655591362702</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="X8" t="n">
-        <v>2327.655591362702</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="Y8" t="n">
-        <v>1931.164882283303</v>
+        <v>1937.641433863169</v>
       </c>
     </row>
     <row r="9">
@@ -4859,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C9" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D9" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E9" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F9" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G9" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H9" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154367</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L9" t="n">
-        <v>530.879055999857</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>623.6437572083089</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q9" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R9" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S9" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T9" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U9" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V9" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W9" t="n">
         <v>1367.096582257017</v>
@@ -4928,7 +4928,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y9" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="10">
@@ -4986,19 +4986,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>386.3238676264566</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U10" t="n">
-        <v>100.8850758683575</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V10" t="n">
-        <v>47.31297010154361</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W10" t="n">
         <v>47.31297010154361</v>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>47.31297010154361</v>
+        <v>1741.6531569252</v>
       </c>
       <c r="C11" t="n">
-        <v>47.31297010154361</v>
+        <v>1741.6531569252</v>
       </c>
       <c r="D11" t="n">
-        <v>47.31297010154361</v>
+        <v>1356.212028141868</v>
       </c>
       <c r="E11" t="n">
-        <v>47.31297010154361</v>
+        <v>953.6285032584121</v>
       </c>
       <c r="F11" t="n">
-        <v>47.31297010154361</v>
+        <v>536.7340647883899</v>
       </c>
       <c r="G11" t="n">
-        <v>47.31297010154361</v>
+        <v>123.571309276393</v>
       </c>
       <c r="H11" t="n">
         <v>47.31297010154361</v>
@@ -5041,22 +5041,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J11" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K11" t="n">
-        <v>47.31297010154361</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L11" t="n">
-        <v>540.6332618200724</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M11" t="n">
-        <v>1086.634161864653</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N11" t="n">
-        <v>1577.42141205333</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O11" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P11" t="n">
         <v>2365.64850507718</v>
@@ -5074,19 +5074,19 @@
         <v>2142.147902636597</v>
       </c>
       <c r="U11" t="n">
-        <v>1886.395173071196</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="V11" t="n">
-        <v>1544.288363774714</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="W11" t="n">
-        <v>1173.289328743002</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="X11" t="n">
-        <v>844.2984248923394</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="Y11" t="n">
-        <v>447.8077158129405</v>
+        <v>2142.147902636597</v>
       </c>
     </row>
     <row r="12">
@@ -5096,67 +5096,67 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C12" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D12" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E12" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F12" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G12" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H12" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I12" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J12" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K12" t="n">
         <v>367.0521161637701</v>
       </c>
       <c r="L12" t="n">
-        <v>367.0521161637701</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M12" t="n">
-        <v>952.5501211703722</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="N12" t="n">
-        <v>1538.048126176974</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O12" t="n">
-        <v>2054.568408767956</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P12" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q12" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R12" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S12" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T12" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U12" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V12" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W12" t="n">
         <v>1367.096582257017</v>
@@ -5165,7 +5165,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y12" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="13">
@@ -5175,7 +5175,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>47.31297010154361</v>
+        <v>212.9812734151375</v>
       </c>
       <c r="C13" t="n">
         <v>47.31297010154361</v>
@@ -5223,28 +5223,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R13" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S13" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T13" t="n">
-        <v>386.3238676264566</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U13" t="n">
-        <v>100.8850758683575</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="V13" t="n">
-        <v>47.31297010154361</v>
+        <v>447.0615956321544</v>
       </c>
       <c r="W13" t="n">
-        <v>47.31297010154361</v>
+        <v>447.0615956321544</v>
       </c>
       <c r="X13" t="n">
-        <v>47.31297010154361</v>
+        <v>212.9812734151375</v>
       </c>
       <c r="Y13" t="n">
-        <v>47.31297010154361</v>
+        <v>212.9812734151375</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>47.31297010154361</v>
+        <v>1771.148867604884</v>
       </c>
       <c r="C14" t="n">
-        <v>47.31297010154361</v>
+        <v>1771.148867604884</v>
       </c>
       <c r="D14" t="n">
-        <v>47.31297010154361</v>
+        <v>1385.707738821552</v>
       </c>
       <c r="E14" t="n">
-        <v>47.31297010154361</v>
+        <v>983.1242139380965</v>
       </c>
       <c r="F14" t="n">
-        <v>47.31297010154361</v>
+        <v>566.2297754680743</v>
       </c>
       <c r="G14" t="n">
-        <v>47.31297010154361</v>
+        <v>153.0670199560774</v>
       </c>
       <c r="H14" t="n">
         <v>47.31297010154361</v>
@@ -5278,52 +5278,52 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J14" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K14" t="n">
-        <v>550.9450990378335</v>
+        <v>173.6308686433316</v>
       </c>
       <c r="L14" t="n">
-        <v>1044.265390756362</v>
+        <v>666.9511603618604</v>
       </c>
       <c r="M14" t="n">
-        <v>1590.266290800943</v>
+        <v>1212.952060406441</v>
       </c>
       <c r="N14" t="n">
-        <v>2118.077574438405</v>
+        <v>1740.763344043903</v>
       </c>
       <c r="O14" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P14" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q14" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R14" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S14" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T14" t="n">
-        <v>1937.641433863169</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U14" t="n">
-        <v>1681.888704297768</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="V14" t="n">
-        <v>1339.781895001287</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="W14" t="n">
-        <v>968.782859969574</v>
+        <v>1771.148867604884</v>
       </c>
       <c r="X14" t="n">
-        <v>844.2984248923394</v>
+        <v>1771.148867604884</v>
       </c>
       <c r="Y14" t="n">
-        <v>447.8077158129405</v>
+        <v>1771.148867604884</v>
       </c>
     </row>
     <row r="15">
@@ -5333,67 +5333,67 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C15" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D15" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E15" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F15" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G15" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H15" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I15" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J15" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K15" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L15" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M15" t="n">
-        <v>1436.116207068686</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N15" t="n">
-        <v>1436.116207068686</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O15" t="n">
-        <v>1952.636489659666</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P15" t="n">
-        <v>2358.257858376064</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q15" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R15" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S15" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T15" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U15" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V15" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W15" t="n">
         <v>1367.096582257017</v>
@@ -5402,7 +5402,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y15" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D16" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E16" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F16" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G16" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H16" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I16" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J16" t="n">
         <v>47.31297010154361</v>
@@ -5466,22 +5466,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T16" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U16" t="n">
-        <v>948.7599926430961</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V16" t="n">
-        <v>948.7599926430961</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1969.157795997781</v>
+        <v>380.2043389737178</v>
       </c>
       <c r="C17" t="n">
-        <v>1575.982294500712</v>
+        <v>380.2043389737178</v>
       </c>
       <c r="D17" t="n">
-        <v>1575.982294500712</v>
+        <v>380.2043389737178</v>
       </c>
       <c r="E17" t="n">
-        <v>1173.398769617256</v>
+        <v>380.2043389737178</v>
       </c>
       <c r="F17" t="n">
-        <v>756.5043311472342</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G17" t="n">
-        <v>509.7331374425881</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H17" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I17" t="n">
         <v>47.31297010154361</v>
@@ -5527,10 +5527,10 @@
         <v>1590.266290800943</v>
       </c>
       <c r="N17" t="n">
-        <v>1832.61545280471</v>
+        <v>1740.763344043903</v>
       </c>
       <c r="O17" t="n">
-        <v>1832.61545280471</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P17" t="n">
         <v>2180.802944936232</v>
@@ -5539,28 +5539,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R17" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S17" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T17" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U17" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V17" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="W17" t="n">
-        <v>2365.64850507718</v>
+        <v>1566.642398831457</v>
       </c>
       <c r="X17" t="n">
-        <v>2365.64850507718</v>
+        <v>1177.189793764514</v>
       </c>
       <c r="Y17" t="n">
-        <v>1969.157795997781</v>
+        <v>780.6990846851147</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J18" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K18" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L18" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M18" t="n">
-        <v>1116.377061006459</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N18" t="n">
-        <v>1443.506853769801</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O18" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P18" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q18" t="n">
         <v>2365.648505077179</v>
@@ -5703,16 +5703,16 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T19" t="n">
-        <v>713.0409408113302</v>
+        <v>789.9441452600163</v>
       </c>
       <c r="U19" t="n">
-        <v>427.6021490532311</v>
+        <v>504.5053535019172</v>
       </c>
       <c r="V19" t="n">
-        <v>270.4250312849002</v>
+        <v>504.5053535019172</v>
       </c>
       <c r="W19" t="n">
-        <v>270.4250312849002</v>
+        <v>504.5053535019172</v>
       </c>
       <c r="X19" t="n">
         <v>270.4250312849002</v>
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>47.31297010154361</v>
+        <v>926.6275759126104</v>
       </c>
       <c r="C20" t="n">
-        <v>47.31297010154361</v>
+        <v>926.6275759126104</v>
       </c>
       <c r="D20" t="n">
-        <v>47.31297010154361</v>
+        <v>926.6275759126104</v>
       </c>
       <c r="E20" t="n">
-        <v>47.31297010154361</v>
+        <v>926.6275759126104</v>
       </c>
       <c r="F20" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="G20" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H20" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I20" t="n">
         <v>47.31297010154361</v>
@@ -5755,19 +5755,19 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K20" t="n">
-        <v>191.9627430103717</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L20" t="n">
-        <v>685.2830347289006</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M20" t="n">
-        <v>1231.283934773481</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N20" t="n">
-        <v>1759.095218410943</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O20" t="n">
-        <v>1832.61545280471</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P20" t="n">
         <v>2180.802944936232</v>
@@ -5776,28 +5776,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R20" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S20" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T20" t="n">
-        <v>2202.609603852878</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U20" t="n">
-        <v>1946.856874287477</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V20" t="n">
-        <v>1604.750064990995</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W20" t="n">
-        <v>1233.751029959283</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="X20" t="n">
-        <v>844.2984248923394</v>
+        <v>950.3292899343434</v>
       </c>
       <c r="Y20" t="n">
-        <v>447.8077158129405</v>
+        <v>926.6275759126104</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J21" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K21" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L21" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M21" t="n">
-        <v>1116.377061006459</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="N21" t="n">
-        <v>1701.875066013061</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O21" t="n">
-        <v>2218.395348604042</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P21" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q21" t="n">
         <v>2365.648505077179</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C22" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D22" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E22" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F22" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G22" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H22" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J22" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K22" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L22" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M22" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N22" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O22" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P22" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q22" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R22" t="n">
-        <v>2241.747515709757</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S22" t="n">
-        <v>2038.931431892307</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T22" t="n">
-        <v>1803.212380060541</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U22" t="n">
-        <v>1517.773588302442</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V22" t="n">
-        <v>1464.201482535628</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W22" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X22" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y22" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>857.8781540846405</v>
+        <v>1602.341637666653</v>
       </c>
       <c r="C23" t="n">
-        <v>464.702652587571</v>
+        <v>1602.341637666653</v>
       </c>
       <c r="D23" t="n">
-        <v>464.702652587571</v>
+        <v>1340.285575440613</v>
       </c>
       <c r="E23" t="n">
-        <v>62.11912770411553</v>
+        <v>937.702050557157</v>
       </c>
       <c r="F23" t="n">
-        <v>62.11912770411553</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G23" t="n">
-        <v>62.11912770411553</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H23" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6022,19 +6022,19 @@
         <v>2715.942227706244</v>
       </c>
       <c r="U23" t="n">
-        <v>2460.189498140842</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="V23" t="n">
-        <v>2118.082688844361</v>
+        <v>2373.835418409762</v>
       </c>
       <c r="W23" t="n">
-        <v>2044.316213942379</v>
+        <v>2002.83638337805</v>
       </c>
       <c r="X23" t="n">
-        <v>1654.863608875436</v>
+        <v>2002.83638337805</v>
       </c>
       <c r="Y23" t="n">
-        <v>1258.372899796037</v>
+        <v>2002.83638337805</v>
       </c>
     </row>
     <row r="24">
@@ -6071,19 +6071,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M24" t="n">
-        <v>865.4243596646552</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N24" t="n">
-        <v>1458.313011372373</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O24" t="n">
-        <v>1974.833293963354</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P24" t="n">
         <v>2380.454662679751</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P25" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q25" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R25" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S25" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T25" t="n">
-        <v>2870.237333374011</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U25" t="n">
-        <v>2584.798541615912</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V25" t="n">
-        <v>2318.819196436736</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2073.376476849992</v>
+        <v>2153.499516000485</v>
       </c>
       <c r="C26" t="n">
-        <v>1680.200975352922</v>
+        <v>1760.324014503415</v>
       </c>
       <c r="D26" t="n">
-        <v>1294.75984656959</v>
+        <v>1374.882885720083</v>
       </c>
       <c r="E26" t="n">
-        <v>892.1763216861347</v>
+        <v>972.2993608366273</v>
       </c>
       <c r="F26" t="n">
-        <v>475.2818832161124</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G26" t="n">
-        <v>62.11912770411553</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H26" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I26" t="n">
         <v>62.11912770411553</v>
@@ -6253,25 +6253,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S26" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T26" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="U26" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="V26" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="W26" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="X26" t="n">
-        <v>2870.361931640788</v>
+        <v>2549.990225079884</v>
       </c>
       <c r="Y26" t="n">
-        <v>2473.871222561389</v>
+        <v>2153.499516000485</v>
       </c>
     </row>
     <row r="27">
@@ -6308,22 +6308,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K27" t="n">
-        <v>62.11912770411553</v>
+        <v>112.6101842924878</v>
       </c>
       <c r="L27" t="n">
-        <v>545.6852136024288</v>
+        <v>596.176270190801</v>
       </c>
       <c r="M27" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N27" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O27" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P27" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q27" t="n">
         <v>2380.454662679751</v>
@@ -6414,16 +6414,16 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T28" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U28" t="n">
-        <v>845.5091971691305</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V28" t="n">
-        <v>579.5298519899548</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W28" t="n">
-        <v>296.1994499211324</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X28" t="n">
         <v>62.11912770411553</v>
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1347.150460533841</v>
+        <v>1794.819155287505</v>
       </c>
       <c r="C29" t="n">
-        <v>953.9749590367712</v>
+        <v>1401.643653790435</v>
       </c>
       <c r="D29" t="n">
-        <v>568.533830253439</v>
+        <v>1016.202525007103</v>
       </c>
       <c r="E29" t="n">
-        <v>165.9503053699835</v>
+        <v>613.6190001236475</v>
       </c>
       <c r="F29" t="n">
-        <v>165.9503053699835</v>
+        <v>613.6190001236475</v>
       </c>
       <c r="G29" t="n">
-        <v>165.9503053699835</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H29" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I29" t="n">
         <v>62.11912770411553</v>
@@ -6493,22 +6493,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T29" t="n">
-        <v>3105.956385205776</v>
+        <v>2981.257215145244</v>
       </c>
       <c r="U29" t="n">
-        <v>2850.203655640375</v>
+        <v>2981.257215145244</v>
       </c>
       <c r="V29" t="n">
-        <v>2508.096846343894</v>
+        <v>2981.257215145244</v>
       </c>
       <c r="W29" t="n">
-        <v>2137.097811312181</v>
+        <v>2981.257215145244</v>
       </c>
       <c r="X29" t="n">
-        <v>1747.645206245238</v>
+        <v>2591.804610078301</v>
       </c>
       <c r="Y29" t="n">
-        <v>1747.645206245238</v>
+        <v>2195.313900998902</v>
       </c>
     </row>
     <row r="30">
@@ -6551,13 +6551,13 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M30" t="n">
-        <v>973.7913173233209</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N30" t="n">
-        <v>1629.56928853388</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="O30" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P30" t="n">
         <v>2146.089571124861</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K31" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L31" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M31" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N31" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O31" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P31" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q31" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R31" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S31" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T31" t="n">
-        <v>2870.237333374011</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U31" t="n">
-        <v>2870.237333374011</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V31" t="n">
-        <v>2870.237333374011</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W31" t="n">
-        <v>2586.906931305188</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X31" t="n">
-        <v>2427.62142384758</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1747.771990524249</v>
+        <v>2149.495479368487</v>
       </c>
       <c r="C32" t="n">
-        <v>1354.596489027179</v>
+        <v>2142.621142693967</v>
       </c>
       <c r="D32" t="n">
-        <v>1354.596489027179</v>
+        <v>1757.180013910635</v>
       </c>
       <c r="E32" t="n">
         <v>1354.596489027179</v>
@@ -6730,22 +6730,22 @@
         <v>2939.442830146827</v>
       </c>
       <c r="T32" t="n">
-        <v>2934.210050381988</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="U32" t="n">
-        <v>2934.210050381988</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="V32" t="n">
-        <v>2934.210050381988</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="W32" t="n">
-        <v>2934.210050381988</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="X32" t="n">
-        <v>2544.757445315045</v>
+        <v>2549.990225079884</v>
       </c>
       <c r="Y32" t="n">
-        <v>2148.266736235646</v>
+        <v>2549.990225079884</v>
       </c>
     </row>
     <row r="33">
@@ -6782,22 +6782,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K33" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L33" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M33" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N33" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O33" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P33" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q33" t="n">
         <v>2380.454662679751</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3019.245715861142</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C34" t="n">
-        <v>2849.040597927132</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D34" t="n">
-        <v>2849.040597927132</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E34" t="n">
-        <v>2849.040597927132</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F34" t="n">
-        <v>2691.714663140105</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G34" t="n">
-        <v>2523.46060923955</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H34" t="n">
-        <v>2367.982058201044</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I34" t="n">
-        <v>2234.887632838122</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K34" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L34" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M34" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N34" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O34" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P34" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q34" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R34" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S34" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T34" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U34" t="n">
-        <v>3019.245715861142</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V34" t="n">
-        <v>3019.245715861142</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W34" t="n">
-        <v>3019.245715861142</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X34" t="n">
-        <v>3019.245715861142</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y34" t="n">
-        <v>3019.245715861142</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1340.285575440613</v>
+        <v>1687.93534806666</v>
       </c>
       <c r="C35" t="n">
-        <v>1340.285575440613</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="D35" t="n">
-        <v>1340.285575440613</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E35" t="n">
-        <v>937.702050557157</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F35" t="n">
-        <v>937.702050557157</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G35" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H35" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6961,28 +6961,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S35" t="n">
-        <v>2939.442830146827</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T35" t="n">
-        <v>2939.442830146827</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U35" t="n">
-        <v>2939.442830146827</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="V35" t="n">
-        <v>2597.336020850345</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="W35" t="n">
-        <v>2226.336985818633</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="X35" t="n">
-        <v>1836.88438075169</v>
+        <v>2484.920802857455</v>
       </c>
       <c r="Y35" t="n">
-        <v>1440.393671672291</v>
+        <v>2088.430093778056</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1173.45686322911</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N36" t="n">
-        <v>1829.234834439669</v>
+        <v>1634.317313094942</v>
       </c>
       <c r="O36" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2345.75511703065</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C37" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D37" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E37" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F37" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G37" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H37" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I37" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P37" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q37" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R37" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S37" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T37" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U37" t="n">
-        <v>2987.899432129239</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V37" t="n">
-        <v>2721.920086950063</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W37" t="n">
-        <v>2438.589684881241</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X37" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y37" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1687.93534806666</v>
+        <v>1548.519290316325</v>
       </c>
       <c r="C38" t="n">
-        <v>1294.75984656959</v>
+        <v>1155.343788819255</v>
       </c>
       <c r="D38" t="n">
-        <v>1294.75984656959</v>
+        <v>769.902660035923</v>
       </c>
       <c r="E38" t="n">
-        <v>892.1763216861347</v>
+        <v>367.3191351524675</v>
       </c>
       <c r="F38" t="n">
-        <v>475.2818832161124</v>
+        <v>367.3191351524675</v>
       </c>
       <c r="G38" t="n">
         <v>62.11912770411553</v>
@@ -7213,13 +7213,13 @@
         <v>3105.956385205776</v>
       </c>
       <c r="W38" t="n">
-        <v>2874.373407924399</v>
+        <v>2734.957350174064</v>
       </c>
       <c r="X38" t="n">
-        <v>2484.920802857455</v>
+        <v>2345.50474510712</v>
       </c>
       <c r="Y38" t="n">
-        <v>2088.430093778056</v>
+        <v>1949.014036027722</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>580.3847592515303</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1208.156408878212</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N39" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>176.4289614766272</v>
+        <v>217.677939844913</v>
       </c>
       <c r="C40" t="n">
-        <v>176.4289614766272</v>
+        <v>217.677939844913</v>
       </c>
       <c r="D40" t="n">
-        <v>176.4289614766272</v>
+        <v>217.677939844913</v>
       </c>
       <c r="E40" t="n">
-        <v>176.4289614766272</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F40" t="n">
         <v>62.11912770411553</v>
@@ -7362,22 +7362,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T40" t="n">
-        <v>727.847098413902</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U40" t="n">
-        <v>442.408306655803</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V40" t="n">
-        <v>176.4289614766272</v>
+        <v>501.0083419137354</v>
       </c>
       <c r="W40" t="n">
-        <v>176.4289614766272</v>
+        <v>217.677939844913</v>
       </c>
       <c r="X40" t="n">
-        <v>176.4289614766272</v>
+        <v>217.677939844913</v>
       </c>
       <c r="Y40" t="n">
-        <v>176.4289614766272</v>
+        <v>217.677939844913</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1625.772682068158</v>
+        <v>1753.004770289088</v>
       </c>
       <c r="C41" t="n">
-        <v>1232.597180571088</v>
+        <v>1359.829268792018</v>
       </c>
       <c r="D41" t="n">
-        <v>1232.597180571088</v>
+        <v>1359.829268792018</v>
       </c>
       <c r="E41" t="n">
-        <v>892.1763216861347</v>
+        <v>957.2457439085626</v>
       </c>
       <c r="F41" t="n">
-        <v>475.2818832161124</v>
+        <v>540.3513054385404</v>
       </c>
       <c r="G41" t="n">
-        <v>62.11912770411553</v>
+        <v>127.1885499265435</v>
       </c>
       <c r="H41" t="n">
-        <v>62.11912770411553</v>
+        <v>127.1885499265435</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7435,28 +7435,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3067.963471491298</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T41" t="n">
-        <v>3067.963471491298</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="U41" t="n">
-        <v>2812.210741925897</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="V41" t="n">
-        <v>2812.210741925897</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="W41" t="n">
-        <v>2812.210741925897</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="X41" t="n">
-        <v>2422.758136858954</v>
+        <v>2549.990225079884</v>
       </c>
       <c r="Y41" t="n">
-        <v>2026.267427779555</v>
+        <v>2153.499516000485</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C42" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D42" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E42" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F42" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G42" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H42" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>1107.359996292367</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L42" t="n">
-        <v>1590.92608219068</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M42" t="n">
-        <v>1590.92608219068</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N42" t="n">
-        <v>1949.449642343508</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O42" t="n">
-        <v>2465.969924934489</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P42" t="n">
-        <v>2871.591293650886</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R42" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S42" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T42" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U42" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V42" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W42" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X42" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y42" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="43">
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>217.7522408016008</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C43" t="n">
-        <v>217.7522408016008</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D43" t="n">
         <v>62.11912770411553</v>
@@ -7599,22 +7599,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T43" t="n">
-        <v>963.5661502456679</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U43" t="n">
-        <v>678.1273584875689</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V43" t="n">
-        <v>412.1480133083932</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W43" t="n">
-        <v>217.7522408016008</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X43" t="n">
-        <v>217.7522408016008</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y43" t="n">
-        <v>217.7522408016008</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1687.330521867794</v>
+        <v>909.9804238284923</v>
       </c>
       <c r="C44" t="n">
-        <v>1294.155020370725</v>
+        <v>909.9804238284923</v>
       </c>
       <c r="D44" t="n">
-        <v>1294.155020370725</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="E44" t="n">
-        <v>891.5714954872692</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="F44" t="n">
-        <v>474.677057017247</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="G44" t="n">
-        <v>62.11912770411553</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H44" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J44" t="n">
-        <v>62.11912770411553</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K44" t="n">
-        <v>62.11912770411553</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L44" t="n">
-        <v>648.9861522035832</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M44" t="n">
-        <v>1299.075816992685</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N44" t="n">
-        <v>1932.660130409688</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O44" t="n">
-        <v>2472.578203952837</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P44" t="n">
-        <v>2906.009661721701</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q44" t="n">
         <v>3105.956385205776</v>
@@ -7675,25 +7675,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T44" t="n">
-        <v>3105.956385205776</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="U44" t="n">
-        <v>2873.768581725533</v>
+        <v>2460.189498140842</v>
       </c>
       <c r="V44" t="n">
-        <v>2873.768581725533</v>
+        <v>2118.082688844361</v>
       </c>
       <c r="W44" t="n">
-        <v>2873.768581725533</v>
+        <v>1747.083653812648</v>
       </c>
       <c r="X44" t="n">
-        <v>2484.31597665859</v>
+        <v>1357.631048745705</v>
       </c>
       <c r="Y44" t="n">
-        <v>2087.825267579191</v>
+        <v>961.1403396663061</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>846.8942493872726</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C45" t="n">
-        <v>696.2400189473648</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D45" t="n">
-        <v>566.1510515688451</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E45" t="n">
-        <v>429.7045606797329</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F45" t="n">
-        <v>305.2727545628647</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G45" t="n">
-        <v>185.5365471806598</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H45" t="n">
-        <v>100.3645273695911</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
         <v>62.11912770411553</v>
@@ -7730,49 +7730,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>433.0743856833844</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L45" t="n">
-        <v>985.5068545149402</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M45" t="n">
-        <v>1693.64232480728</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N45" t="n">
-        <v>1872.247908096569</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
-        <v>1872.247908096569</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2338.434968766254</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
-        <v>2338.434968766254</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R45" t="n">
-        <v>2334.610166402014</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S45" t="n">
-        <v>2205.690413258095</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T45" t="n">
-        <v>2030.010979052224</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U45" t="n">
-        <v>1819.969125898361</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V45" t="n">
-        <v>1597.429124269428</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W45" t="n">
-        <v>1367.311878402715</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X45" t="n">
-        <v>1178.004800752727</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y45" t="n">
-        <v>998.6905838282339</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="46">
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>139.0818676762667</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C46" t="n">
-        <v>139.0818676762667</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D46" t="n">
-        <v>139.0818676762667</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E46" t="n">
         <v>62.11912770411553</v>
@@ -7809,49 +7809,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>174.8475250512995</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>378.5080246984842</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>606.4814607518316</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>830.3618510851924</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>1030.651117561692</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P46" t="n">
-        <v>1182.687315527651</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q46" t="n">
-        <v>1208.375451201398</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R46" t="n">
-        <v>1208.375451201398</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S46" t="n">
-        <v>1208.375451201398</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T46" t="n">
-        <v>973.8156082708589</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U46" t="n">
-        <v>688.3916149242648</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V46" t="n">
-        <v>422.412269745089</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W46" t="n">
-        <v>139.0818676762667</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X46" t="n">
-        <v>139.0818676762667</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y46" t="n">
-        <v>139.0818676762667</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
   </sheetData>
@@ -7981,10 +7981,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>614.1534811140714</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
         <v>701.2411122488187</v>
@@ -7993,7 +7993,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>194.0418287534719</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
@@ -8057,19 +8057,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>683.7992483186069</v>
+        <v>340.274574506989</v>
       </c>
       <c r="N3" t="n">
-        <v>415.8062469585531</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
@@ -8078,7 +8078,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8218,7 +8218,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
@@ -8227,13 +8227,13 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>487.848403846783</v>
       </c>
       <c r="O5" t="n">
-        <v>410.5393874591622</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8294,7 +8294,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
@@ -8303,19 +8303,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>502.5559668112513</v>
+        <v>333.2595653118428</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
         <v>143.0584031792374</v>
@@ -8461,10 +8461,10 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>477.1304116531281</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>498.7523067719748</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
@@ -8473,7 +8473,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8531,19 +8531,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>186.0888404416876</v>
+        <v>340.2745745069881</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8689,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K11" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L11" t="n">
         <v>651.5514946987026</v>
@@ -8701,13 +8701,13 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N11" t="n">
-        <v>644.8631884980639</v>
+        <v>487.848403846783</v>
       </c>
       <c r="O11" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P11" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q11" t="n">
         <v>144.4986984183922</v>
@@ -8774,22 +8774,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N12" t="n">
-        <v>676.7842391234617</v>
+        <v>447.5171231095482</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>401.3056843235811</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8926,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K14" t="n">
-        <v>505.666843611017</v>
+        <v>270.6522400901343</v>
       </c>
       <c r="L14" t="n">
         <v>651.5514946987026</v>
@@ -8941,13 +8941,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O14" t="n">
-        <v>399.6354845339704</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P14" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q14" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9005,7 +9005,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
@@ -9014,7 +9014,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>683.7992483186069</v>
+        <v>340.274574506989</v>
       </c>
       <c r="N15" t="n">
         <v>85.37211285416666</v>
@@ -9026,7 +9026,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>98.45345285401062</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9175,13 +9175,13 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N17" t="n">
-        <v>393.9156246749224</v>
+        <v>301.1357168357237</v>
       </c>
       <c r="O17" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P17" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q17" t="n">
         <v>331.2113854294513</v>
@@ -9242,10 +9242,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
@@ -9254,16 +9254,16 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N18" t="n">
-        <v>415.8062469585524</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>270.9005442600792</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9403,7 +9403,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L20" t="n">
         <v>651.5514946987026</v>
@@ -9415,10 +9415,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O20" t="n">
-        <v>223.8267004481029</v>
+        <v>212.9227975229111</v>
       </c>
       <c r="P20" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q20" t="n">
         <v>331.2113854294513</v>
@@ -9479,28 +9479,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>683.7992483186069</v>
+        <v>340.2745745069881</v>
       </c>
       <c r="N21" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>235.8239269133925</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9719,22 +9719,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>684.2495388215582</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q24" t="n">
         <v>90.98815315591399</v>
@@ -9895,7 +9895,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q26" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R26" t="n">
         <v>102.5176150018526</v>
@@ -9956,7 +9956,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>140.5980025943154</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
@@ -9965,7 +9965,7 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>373.1055958271594</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -9974,7 +9974,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10120,7 +10120,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M29" t="n">
-        <v>701.2411122488187</v>
+        <v>701.2411122488188</v>
       </c>
       <c r="N29" t="n">
         <v>682.2612020826953</v>
@@ -10199,16 +10199,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>201.8486954419035</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>342.4574509263909</v>
       </c>
       <c r="P30" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
         <v>327.7205688679246</v>
@@ -10366,7 +10366,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P32" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q32" t="n">
         <v>331.2113854294513</v>
@@ -10430,16 +10430,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N33" t="n">
-        <v>373.1055958271594</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10448,7 +10448,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10664,28 +10664,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
-        <v>614.4252180716981</v>
+        <v>199.9106794075977</v>
       </c>
       <c r="P36" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>126.0381992661173</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10831,7 +10831,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M38" t="n">
-        <v>701.2411122488187</v>
+        <v>701.2411122488188</v>
       </c>
       <c r="N38" t="n">
         <v>682.2612020826953</v>
@@ -10840,7 +10840,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P38" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q38" t="n">
         <v>331.2113854294513</v>
@@ -10901,28 +10901,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>290.5921503773105</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11080,7 +11080,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q41" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R41" t="n">
         <v>102.5176150018526</v>
@@ -11141,25 +11141,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>447.5171231095479</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>66.85930902235421</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
-        <v>66.89160419125324</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L44" t="n">
         <v>651.5514946987026</v>
@@ -11317,7 +11317,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q44" t="n">
-        <v>281.803804845146</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R44" t="n">
         <v>102.5176150018526</v>
@@ -11375,10 +11375,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>52.17609846406338</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
@@ -11387,16 +11387,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>182.4577405517652</v>
+        <v>136.3731801151487</v>
       </c>
       <c r="O45" t="n">
-        <v>16.46232962463525</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>50.09263685995591</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -22552,10 +22552,10 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>251.3794037967055</v>
       </c>
       <c r="E2" t="n">
-        <v>148.8023946611742</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>412.725494085322</v>
@@ -22594,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22615,7 +22615,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -22704,16 +22704,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>83.20388447305832</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
@@ -22752,19 +22752,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>210.2831670182382</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -22773,7 +22773,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22789,19 +22789,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>63.12970360580988</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -22840,19 +22840,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>203.176235932975</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22989,25 +22989,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>135.7503298808103</v>
       </c>
       <c r="V7" t="n">
-        <v>210.2831670182382</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -23020,25 +23020,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>35.08237414644458</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>126.1313825944755</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -23071,10 +23071,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
@@ -23089,7 +23089,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -23226,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23238,10 +23238,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>210.2831670182382</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -23263,19 +23263,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>320.8422199291742</v>
+        <v>245.3464641460733</v>
       </c>
       <c r="I11" t="n">
         <v>136.9537457384598</v>
@@ -23314,19 +23314,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>59.85708420411828</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -23418,7 +23418,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
-        <v>168.5030667546707</v>
+        <v>4.491446474212722</v>
       </c>
       <c r="D13" t="n">
         <v>154.0767819665104</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>210.2831670182382</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>220.8809405715231</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>320.8422199291742</v>
+        <v>216.1457105731857</v>
       </c>
       <c r="I14" t="n">
         <v>136.9537457384598</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>262.3184882898115</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -23658,25 +23658,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23706,16 +23706,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>404.0052588310438</v>
       </c>
       <c r="G17" t="n">
-        <v>164.7276461892773</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,13 +23779,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>253.1952022697474</v>
@@ -23794,10 +23794,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23943,19 +23943,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>76.13417240419921</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>107.7142051367364</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
         <v>389.2437464820987</v>
@@ -23980,16 +23980,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>59.85708420411831</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24031,13 +24031,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>369.0611051070892</v>
       </c>
     </row>
     <row r="21">
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>210.2831670182379</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>231.7395189948467</v>
@@ -24208,10 +24208,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>122.1512158917193</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,13 +24220,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24262,19 +24262,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>294.2602345284338</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>167.3303626133469</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24454,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>378.4741569086464</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>221.2655964161775</v>
@@ -24508,7 +24508,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>152.3195699869349</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24654,19 +24654,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>165.708020294746</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
         <v>220.8809405715231</v>
@@ -24694,13 +24694,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>218.049354039965</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,22 +24733,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>221.2655964161775</v>
+        <v>97.81341805625063</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24894,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>74.04686661181503</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -24919,13 +24919,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>382.4381531743241</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24970,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.0851444489868</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
         <v>253.1952022697474</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -25077,7 +25077,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
         <v>154.0767819665104</v>
@@ -25086,19 +25086,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25131,16 +25131,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
-        <v>196.7408411893304</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>165.708020294746</v>
       </c>
       <c r="Y34" t="n">
         <v>220.8809405715231</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>297.3827829849214</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>381.5867174954989</v>
@@ -25165,16 +25165,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,25 +25201,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>194.4598529933068</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25368,16 +25368,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
         <v>165.708020294746</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>220.8809405715231</v>
@@ -25396,16 +25396,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>106.8831205830085</v>
       </c>
       <c r="H38" t="n">
         <v>320.8422199291742</v>
@@ -25453,7 +25453,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>138.0218971728315</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25557,10 +25557,10 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>42.58594000437023</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
         <v>166.5715133615489</v>
@@ -25602,16 +25602,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>87.97172531928885</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
@@ -25636,7 +25636,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>61.54103933851678</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
-        <v>136.9537457384598</v>
+        <v>72.53501773825609</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
         <v>338.6857412035168</v>
@@ -25791,7 +25791,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
         <v>154.0032240193895</v>
@@ -25839,7 +25839,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>88.04528326640971</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>345.8414815748473</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>113.8693593270194</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,22 +25912,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>23.28137458935666</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26031,22 +26031,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>77.81011144695989</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>166.3029221927327</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H46" t="n">
-        <v>151.5357458635549</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I46" t="n">
-        <v>123.6862121416195</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J46" t="n">
-        <v>11.085091836852</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>110.585143828612</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>196.1071114281788</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>165.708020294746</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>633170.5901382857</v>
+        <v>633170.5901382853</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>633170.5901382854</v>
+        <v>633170.5901382857</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>633170.5901382854</v>
+        <v>633170.5901382857</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>633170.5901382855</v>
+        <v>633170.5901382858</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>633170.5901382857</v>
+        <v>633170.5901382858</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>713357.1069856581</v>
+        <v>713357.1069856578</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>713357.1069856578</v>
+        <v>713357.1069856577</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>713357.1069856579</v>
+        <v>713357.1069856577</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>713357.1069856577</v>
+        <v>713357.1069856578</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>713357.1069856578</v>
+        <v>713357.1069856577</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>713357.1069856579</v>
+        <v>713357.1069856578</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>721068.2688540283</v>
+        <v>713357.1069856579</v>
       </c>
     </row>
   </sheetData>
@@ -26316,7 +26316,7 @@
         <v>214566.1743955704</v>
       </c>
       <c r="C2" t="n">
-        <v>214566.1743955704</v>
+        <v>214566.1743955703</v>
       </c>
       <c r="D2" t="n">
         <v>214566.1743955704</v>
@@ -26325,7 +26325,7 @@
         <v>214566.1743955704</v>
       </c>
       <c r="F2" t="n">
-        <v>214566.1743955704</v>
+        <v>214566.1743955703</v>
       </c>
       <c r="G2" t="n">
         <v>214566.1743955704</v>
@@ -26334,10 +26334,10 @@
         <v>214566.1743955704</v>
       </c>
       <c r="I2" t="n">
-        <v>241723.0823229923</v>
+        <v>241723.0823229922</v>
       </c>
       <c r="J2" t="n">
-        <v>241723.0823229923</v>
+        <v>241723.0823229922</v>
       </c>
       <c r="K2" t="n">
         <v>241723.0823229922</v>
@@ -26346,16 +26346,16 @@
         <v>241723.0823229922</v>
       </c>
       <c r="M2" t="n">
+        <v>241723.0823229922</v>
+      </c>
+      <c r="N2" t="n">
         <v>241723.0823229923</v>
-      </c>
-      <c r="N2" t="n">
-        <v>241723.0823229922</v>
       </c>
       <c r="O2" t="n">
         <v>241723.0823229922</v>
       </c>
       <c r="P2" t="n">
-        <v>248195.4208190849</v>
+        <v>241723.0823229923</v>
       </c>
     </row>
     <row r="3">
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>99134.89074852428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26423,19 +26423,19 @@
         <v>57691.12693712541</v>
       </c>
       <c r="D4" t="n">
+        <v>57691.12693712541</v>
+      </c>
+      <c r="E4" t="n">
         <v>57691.12693712542</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
+        <v>57691.12693712542</v>
+      </c>
+      <c r="G4" t="n">
         <v>57691.12693712541</v>
       </c>
-      <c r="F4" t="n">
-        <v>57691.12693712541</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>57691.12693712542</v>
-      </c>
-      <c r="H4" t="n">
-        <v>57691.12693712541</v>
       </c>
       <c r="I4" t="n">
         <v>65070.2855682401</v>
@@ -26444,7 +26444,7 @@
         <v>65070.2855682401</v>
       </c>
       <c r="K4" t="n">
-        <v>65070.28556824011</v>
+        <v>65070.2855682401</v>
       </c>
       <c r="L4" t="n">
         <v>65070.2855682401</v>
@@ -26459,7 +26459,7 @@
         <v>65070.2855682401</v>
       </c>
       <c r="P4" t="n">
-        <v>55414.53102491517</v>
+        <v>65070.2855682401</v>
       </c>
     </row>
     <row r="5">
@@ -26511,7 +26511,7 @@
         <v>47210.5370551278</v>
       </c>
       <c r="P5" t="n">
-        <v>50457.56011232611</v>
+        <v>47210.5370551278</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-110906.2158104731</v>
+        <v>-111580.2419366932</v>
       </c>
       <c r="C6" t="n">
-        <v>87289.59018127187</v>
+        <v>86615.56405505174</v>
       </c>
       <c r="D6" t="n">
-        <v>87289.59018127187</v>
+        <v>86615.56405505177</v>
       </c>
       <c r="E6" t="n">
-        <v>120917.1901812719</v>
+        <v>120243.1640550518</v>
       </c>
       <c r="F6" t="n">
-        <v>120917.1901812718</v>
+        <v>120243.1640550517</v>
       </c>
       <c r="G6" t="n">
-        <v>120917.1901812719</v>
+        <v>120243.1640550518</v>
       </c>
       <c r="H6" t="n">
-        <v>120917.1901812718</v>
+        <v>120243.1640550518</v>
       </c>
       <c r="I6" t="n">
-        <v>80226.40675170528</v>
+        <v>79695.31171984003</v>
       </c>
       <c r="J6" t="n">
-        <v>-25297.17466597905</v>
+        <v>-25828.26969784436</v>
       </c>
       <c r="K6" t="n">
-        <v>129442.2596996244</v>
+        <v>128911.1646677592</v>
       </c>
       <c r="L6" t="n">
-        <v>129442.2596996243</v>
+        <v>128911.1646677591</v>
       </c>
       <c r="M6" t="n">
-        <v>129442.2596996244</v>
+        <v>128911.1646677591</v>
       </c>
       <c r="N6" t="n">
-        <v>129442.2596996243</v>
+        <v>128911.1646677592</v>
       </c>
       <c r="O6" t="n">
-        <v>129442.2596996243</v>
+        <v>128911.1646677592</v>
       </c>
       <c r="P6" t="n">
-        <v>43188.43893331932</v>
+        <v>128911.1646677592</v>
       </c>
     </row>
   </sheetData>
@@ -26779,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>148.9460117980881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>148.9460117980881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5987779368767356</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>6.132234546038871</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>23.08438641144037</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>50.82052891999189</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>76.16679898798412</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>94.49164927367555</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>105.1401664086072</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>106.8414442217582</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>100.8873461119402</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>86.10501579529576</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>64.66128093089763</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>13.64465223657863</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>2.621150418677912</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04790223495013884</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3203744404713593</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>3.094142622447076</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>11.03043577938672</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>30.26835886926997</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>51.73344638085104</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>69.56200296287125</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>81.17557642995801</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>83.32405239259271</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>76.22522926425364</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>61.17746661948265</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>40.89551629595808</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>19.89131833031827</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>5.950814716650026</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>1.291333819268329</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02107726582048417</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2685911688162244</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>2.38801966456607</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>8.077268967673369</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>18.98939563530707</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>31.20541034064861</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>39.93218158927759</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>42.10288658089234</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>41.10177404257735</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>37.96414084322417</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>32.48488099937317</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>22.4908477815113</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>12.07683564513678</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>4.680811551097292</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>1.147616812214777</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01465042738997589</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,10 +34701,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>460.9053113835797</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
         <v>551.5160606510915</v>
@@ -34713,7 +34713,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>44.47799132937547</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
@@ -34777,19 +34777,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>591.4121262692951</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="N3" t="n">
-        <v>330.4341341043864</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
@@ -34798,7 +34798,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
@@ -34947,13 +34947,13 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>338.7299125089989</v>
       </c>
       <c r="O5" t="n">
-        <v>260.9755500350659</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
@@ -35023,19 +35023,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>417.1838539570846</v>
+        <v>247.8874524576762</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -35181,10 +35181,10 @@
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>327.4053600554008</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>349.6338154341907</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
@@ -35193,7 +35193,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>93.70171839237568</v>
+        <v>247.8874524576762</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L11" t="n">
         <v>498.303324968211</v>
@@ -35421,13 +35421,13 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N11" t="n">
-        <v>495.7446971602798</v>
+        <v>338.7299125089989</v>
       </c>
       <c r="O11" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P11" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>591.4121262692951</v>
+        <v>362.1450102553815</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>314.2223195042665</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>362.6084404317796</v>
+        <v>127.5938369108969</v>
       </c>
       <c r="L14" t="n">
         <v>498.303324968211</v>
@@ -35661,13 +35661,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>250.071647109874</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
@@ -35734,7 +35734,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>591.4121262692951</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35746,7 +35746,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>7.465299698096623</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35895,13 +35895,13 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N17" t="n">
-        <v>244.7971333371383</v>
+        <v>152.0172254979396</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>186.7126870110591</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
@@ -35974,16 +35974,16 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N18" t="n">
-        <v>330.4341341043857</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>178.2129853711903</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L20" t="n">
         <v>498.303324968211</v>
@@ -36135,10 +36135,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>74.26286302400655</v>
+        <v>63.35896009881473</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>186.7126870110591</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>591.4121262692951</v>
+        <v>247.8874524576762</v>
       </c>
       <c r="N21" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>148.7405620940779</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>598.8774259673916</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36609,13 +36609,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P26" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>51.00106726098205</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
@@ -36685,7 +36685,7 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>287.7334829729927</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36694,7 +36694,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N29" t="n">
         <v>533.1427107449111</v>
@@ -36919,16 +36919,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>109.4615733925916</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>249.769892037502</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
         <v>236.7324157120106</v>
@@ -37086,7 +37086,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
@@ -37150,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N33" t="n">
-        <v>287.7334829729927</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37168,7 +37168,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
-        <v>521.7376591828091</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>35.05004611020335</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M38" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N38" t="n">
         <v>533.1427107449111</v>
@@ -37560,7 +37560,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P38" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q38" t="n">
         <v>186.7126870110591</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>200.5318035203923</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>362.1450102553813</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
-        <v>592.7949742418865</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M44" t="n">
-        <v>656.6562270596987</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
-        <v>639.9841549666694</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
-        <v>545.3717914577264</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
-        <v>437.8095533018835</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>201.9663873576515</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>374.7022807871404</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>558.0125947793492</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>715.2883538306461</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>180.4096800901913</v>
+        <v>51.00106726098203</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>470.8960208784699</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,25 +38177,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>113.8670680274586</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>205.7176764112976</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>230.2761980336843</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>226.1418084175361</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>202.312390380303</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>153.5719171373313</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>25.94761179166379</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
